--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,123 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1052000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1068000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1070000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1056000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1007000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>972000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>914000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>893200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>873000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>846400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>820400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>814900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +824,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +874,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +898,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,8 +944,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,8 +994,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,22 +1044,28 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-12000</v>
+        <v>-11000</v>
       </c>
       <c r="E15" s="3">
         <v>-12000</v>
       </c>
       <c r="F15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="G15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="H15" s="3">
         <v>-13000</v>
@@ -1030,28 +1074,34 @@
         <v>-13000</v>
       </c>
       <c r="J15" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="K15" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="L15" s="3">
         <v>-14000</v>
       </c>
       <c r="M15" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-14200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-14400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-14100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1115,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F17" s="3">
         <v>335000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>315000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>315000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>283000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>258000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>244000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>210000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>188900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>158100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>126900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>158000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>154800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>701000</v>
+      </c>
+      <c r="F18" s="3">
         <v>717000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>753000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>755000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>773000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>749000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>728000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>704000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>704300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>714900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>719500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>662400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>660100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,96 +1235,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-665000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-278000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-326000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-334000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-382000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-309000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-316000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-319000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-292500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-350300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-369100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-395000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-347200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>450000</v>
+      </c>
+      <c r="F21" s="3">
         <v>543000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>552000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>534000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>562000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>535000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>490000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>517700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>460800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>350000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>478600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>393200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,96 +1381,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>372000</v>
+      </c>
+      <c r="F23" s="3">
         <v>439000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>427000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>421000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>391000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>440000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>412000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>385000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>411700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>364500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>350400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>267400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>312900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F24" s="3">
         <v>67000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>63000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>63000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>60000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>62000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>57000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>103100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>89900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>78600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>59300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>74000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,96 +1531,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>317000</v>
+      </c>
+      <c r="F26" s="3">
         <v>372000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>364000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>358000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>331000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>378000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>355000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>326000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>308600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>274600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>271700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>208100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>239000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F27" s="3">
         <v>354000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>346000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>339000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>312000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>360000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>334000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>314000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>289300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>255700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>252900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>189200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>220100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1681,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1581,27 +1701,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>3000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>123000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1611,8 +1731,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,8 +1781,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,96 +1831,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>665000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>329000</v>
+      </c>
+      <c r="F32" s="3">
         <v>278000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>326000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>334000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>382000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>309000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>316000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>319000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>292500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>350300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>369100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>395000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>347200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F33" s="3">
         <v>354000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>346000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>339000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>315000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>360000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>334000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>314000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>412300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>255700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>252900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>189200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>220100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1831,101 +1981,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F35" s="3">
         <v>354000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>346000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>339000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>315000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>360000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>334000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>314000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>412300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>255700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>252900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>189200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>220100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,8 +2110,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1960,96 +2130,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1431000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1018000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>870000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>804000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1108000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1299000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1382000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1069000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1520000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1193700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1515500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1308800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1384800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3894000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="F42" s="3">
         <v>2866000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2778000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2216000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3162000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1549000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1457000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1354000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>455000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>459400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>496000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>160800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>191600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2092,8 +2276,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2136,8 +2326,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,8 +2376,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2224,8 +2426,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2268,96 +2476,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>743000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>973000</v>
+      </c>
+      <c r="F48" s="3">
         <v>975000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>976000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>987000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>790000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>827000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>840000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>847000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>864000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>853300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>855300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>852600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>815500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2445000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2471000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2503000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2524000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2550000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2560000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2572000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2577000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2582400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2591400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2608600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2620900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2626,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,8 +2676,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2488,8 +2726,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2532,52 +2776,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113897000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>109002000</v>
+      </c>
+      <c r="F54" s="3">
         <v>108735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>108247000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>108203000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>108781000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>105652000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>105358000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>104246000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>104185000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>101988100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>101406800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100045500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>99714100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2850,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2612,8 +2870,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2656,8 +2916,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2700,52 +2966,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1304000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1884000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1753000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2074000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1983000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1859000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1855000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1725000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1556000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1737000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1520300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1441600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1643300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1796400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2788,52 +3066,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9796000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9849000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9874000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8973000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9400000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8625000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9385000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9726000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8618000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9206000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9200700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>8536500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9279100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8309200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2876,8 +3166,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2920,8 +3216,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2964,8 +3266,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,52 +3316,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102128000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>97207000</v>
+      </c>
+      <c r="F66" s="3">
         <v>96826000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>96579000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>96771000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>97679000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>94718000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>93886000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>92938000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>93371000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>91289300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>90752600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>89608400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>89406000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3070,8 +3390,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3114,8 +3436,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3486,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,25 +3519,31 @@
         <v>1203000</v>
       </c>
       <c r="K70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="M70" s="3">
         <v>1071000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1071300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1071300</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1071200</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1071200</v>
       </c>
       <c r="P70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>1071200</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3246,52 +3586,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1657000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2088000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1946000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1750000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1551000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1361000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1196000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>990000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>780000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>588000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>201200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>33600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-126200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-226800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3334,8 +3686,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3378,8 +3736,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3422,52 +3786,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10566000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10592000</v>
+      </c>
+      <c r="F76" s="3">
         <v>10706000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10465000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10229000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9899000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9731000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10269000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10105000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9743000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9627600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9582900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9365900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9236900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3510,101 +3886,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F81" s="3">
         <v>354000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>346000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>339000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>315000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>360000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>334000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>314000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>412300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>255700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>252900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>189200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>220100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3621,52 +4015,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>78000</v>
+      </c>
+      <c r="F83" s="3">
         <v>104000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>73000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>131000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>143000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>122000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>123000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>105000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>105900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>96200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>-400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>211200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>80300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,8 +4111,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,8 +4161,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3797,8 +4211,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3841,8 +4261,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3885,52 +4311,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>676000</v>
+      </c>
+      <c r="F89" s="3">
         <v>46000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>355000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>497000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>582000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>542000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>308000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>294000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>847700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>547600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>163000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>395800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>529500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3947,52 +4385,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-48000</v>
       </c>
       <c r="H91" s="3">
         <v>-24000</v>
       </c>
       <c r="I91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-49400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-32100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-57100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-55500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-56800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4035,8 +4481,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,52 +4531,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4322000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1114000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-184000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-64000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-515000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-519000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-682000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-776000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-843100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-737100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-585400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4141,52 +4605,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-147000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-147000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-148000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-152000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-122000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-122000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-118000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-87400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-87400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-87200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-87000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-76600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4701,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4751,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4317,52 +4801,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F100" s="3">
         <v>176000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-29000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2477000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-106000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>687000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1642400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>252500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>886700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>265400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-221300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4405,48 +4901,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-466000</v>
+      </c>
+      <c r="F102" s="3">
         <v>38000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>262000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1373000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-83000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>313000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-451000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>326000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-321700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>206700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-76000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-277200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E8" s="3">
         <v>975000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1011000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1052000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1068000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1070000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1056000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1007000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>972000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>914000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>893200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>873000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>846400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>820400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>814900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,8 +836,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +889,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -900,8 +912,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,8 +1016,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,16 +1069,19 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-12000</v>
       </c>
       <c r="F15" s="3">
         <v>-12000</v>
@@ -1068,7 +1090,7 @@
         <v>-12000</v>
       </c>
       <c r="H15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="I15" s="3">
         <v>-13000</v>
@@ -1080,28 +1102,31 @@
         <v>-13000</v>
       </c>
       <c r="L15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="M15" s="3">
         <v>-14000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-13400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-14000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-14200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-14100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1117,108 +1142,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E17" s="3">
         <v>252000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>310000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>335000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>315000</v>
       </c>
       <c r="H17" s="3">
         <v>315000</v>
       </c>
       <c r="I17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="J17" s="3">
         <v>283000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>258000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>244000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>210000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>158100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>126900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>154800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E18" s="3">
         <v>723000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>701000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>717000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>753000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>755000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>773000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>749000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>728000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>704000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>704300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>714900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>719500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>662400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>660100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1237,108 +1269,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-552000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-665000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-329000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-278000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-326000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-334000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-382000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-309000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-316000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-319000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-292500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-350300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-369100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-395000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-347200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E21" s="3">
         <v>177000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>450000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>543000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>552000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>534000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>562000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>535000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>490000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>517700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>460800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>350000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>478600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>393200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1387,108 +1426,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E23" s="3">
         <v>58000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>372000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>439000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>427000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>421000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>391000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>440000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>412000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>385000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>411700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>364500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>350400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>267400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>312900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>67000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>63000</v>
       </c>
       <c r="H24" s="3">
         <v>63000</v>
       </c>
       <c r="I24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="J24" s="3">
         <v>60000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>62000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>89900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>78600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,108 +1585,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>317000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>372000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>364000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>358000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>331000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>378000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>355000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>326000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>308600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>274600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>271700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>208100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>239000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E27" s="3">
         <v>30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>298000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>354000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>346000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>339000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>312000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>360000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>334000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>314000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>289300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>255700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>252900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>189200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>220100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1687,8 +1744,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,24 +1767,24 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>3000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>123000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1737,8 +1797,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1787,8 +1850,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1837,108 +1903,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E32" s="3">
         <v>665000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>329000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>278000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>326000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>334000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>382000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>309000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>316000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>319000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>292500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>350300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>369100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>395000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>347200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E33" s="3">
         <v>30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>298000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>354000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>346000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>339000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>315000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>360000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>334000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>314000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>412300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>255700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>252900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>189200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>220100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1987,113 +2062,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E35" s="3">
         <v>30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>298000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>354000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>346000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>339000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>315000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>360000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>334000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>314000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>412300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>255700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>252900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>189200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>220100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2112,8 +2196,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2132,108 +2217,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1431000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1045000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1018000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>870000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>804000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1108000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1299000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1382000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1069000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1520000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1193700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1515500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1308800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1384800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6227000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3894000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2189000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2866000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2778000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2216000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3162000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1549000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1457000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1354000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>455000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>459400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>496000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>160800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>191600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2282,8 +2374,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2332,8 +2427,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2382,8 +2480,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2432,8 +2533,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2482,108 +2586,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E48" s="3">
         <v>743000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>973000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>975000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>976000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>790000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>827000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>840000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>847000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>864000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>853300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>855300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>852600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>815500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2401000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2407000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2465000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2445000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2471000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2503000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2524000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2550000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2560000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2572000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2577000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2582400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2591400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2608600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2620900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2632,8 +2745,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2682,8 +2798,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2732,8 +2851,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2782,58 +2904,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118425000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113897000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109002000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108735000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108247000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108203000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108781000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105652000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105358000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104246000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104185000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101988100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101406800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100045500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>99714100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2852,8 +2980,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2872,8 +3001,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2922,8 +3052,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2972,58 +3105,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2521000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1304000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1884000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1753000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2074000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1983000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1859000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1855000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1725000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1556000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1737000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1520300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1441600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1643300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1796400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3072,58 +3211,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9753000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9796000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9849000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9874000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8973000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9400000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8625000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9385000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9726000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8618000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9206000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9200700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8536500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9279100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8309200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3172,8 +3317,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3222,8 +3370,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3272,8 +3423,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3322,58 +3476,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106111000</v>
+      </c>
+      <c r="E66" s="3">
         <v>102128000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>97207000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>96826000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96579000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96771000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97679000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>94718000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93886000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92938000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93371000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91289300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90752600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89608400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89406000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3392,8 +3552,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3442,8 +3603,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3492,13 +3656,16 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1203000</v>
+        <v>1697000</v>
       </c>
       <c r="E70" s="3">
         <v>1203000</v>
@@ -3525,16 +3692,16 @@
         <v>1203000</v>
       </c>
       <c r="M70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="N70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1071300</v>
       </c>
       <c r="O70" s="3">
         <v>1071300</v>
       </c>
       <c r="P70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="Q70" s="3">
         <v>1071200</v>
@@ -3542,8 +3709,11 @@
       <c r="R70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3592,58 +3762,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1657000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2088000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1946000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1750000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1551000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1361000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1196000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>990000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>780000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>588000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>201200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-126200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-226800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3692,8 +3868,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3742,8 +3921,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3792,58 +3974,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10617000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10566000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10592000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10706000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10465000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10229000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9899000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9731000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10269000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10105000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9743000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9627600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9582900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9365900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9236900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3892,113 +4080,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E81" s="3">
         <v>30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>298000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>354000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>346000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>339000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>315000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>360000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>334000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>314000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>412300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>255700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>252900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>189200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>220100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4017,58 +4214,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E83" s="3">
         <v>119000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>104000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>73000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>131000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>143000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>122000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>105000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>96200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>211200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>80300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4117,8 +4318,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4167,8 +4371,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4217,8 +4424,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4267,8 +4477,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4317,58 +4530,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E89" s="3">
         <v>498000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>676000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>355000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>497000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>582000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>542000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>308000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>294000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>847700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>547600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>395800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>529500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4387,58 +4606,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4487,8 +4710,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4537,58 +4763,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-184000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-515000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-519000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-682000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-776000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-843100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-737100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-585400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4607,58 +4839,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-155000</v>
+        <v>-152000</v>
       </c>
       <c r="E96" s="3">
         <v>-155000</v>
       </c>
       <c r="F96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="G96" s="3">
         <v>-147000</v>
       </c>
       <c r="H96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-148000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-122000</v>
       </c>
       <c r="K96" s="3">
         <v>-122000</v>
       </c>
       <c r="L96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-87400</v>
       </c>
       <c r="N96" s="3">
         <v>-87400</v>
       </c>
       <c r="O96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-87200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-76600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4707,8 +4943,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4757,8 +4996,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4807,58 +5049,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4361000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4421000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>176000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2477000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>687000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1642400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>252500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>886700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>265400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-221300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4907,54 +5155,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4526000</v>
+      </c>
+      <c r="E102" s="3">
         <v>597000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-466000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>262000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1373000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>313000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-451000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>326000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-321700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>206700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-277200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,135 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E8" s="3">
         <v>902000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>975000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1011000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1052000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1068000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1070000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1056000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1007000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>972000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>914000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>893200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>873000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>846400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>820400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>814900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +901,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,8 +925,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,8 +979,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,8 +1035,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,8 +1091,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,10 +1103,10 @@
         <v>-10000</v>
       </c>
       <c r="E15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-12000</v>
       </c>
       <c r="G15" s="3">
         <v>-12000</v>
@@ -1093,7 +1115,7 @@
         <v>-12000</v>
       </c>
       <c r="I15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="J15" s="3">
         <v>-13000</v>
@@ -1105,28 +1127,31 @@
         <v>-13000</v>
       </c>
       <c r="M15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="N15" s="3">
         <v>-14000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-13400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-14000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-14400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-14100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1143,114 +1168,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E17" s="3">
         <v>169000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>252000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>310000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>335000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>315000</v>
       </c>
       <c r="I17" s="3">
         <v>315000</v>
       </c>
       <c r="J17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K17" s="3">
         <v>283000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>258000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>244000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>210000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>188900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>158100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>126900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>158000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>154800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E18" s="3">
         <v>733000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>723000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>701000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>717000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>753000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>755000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>773000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>749000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>728000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>704000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>704300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>714900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>719500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>662400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>660100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,114 +1302,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-552000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-665000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-329000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-278000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-326000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-334000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-382000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-309000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-316000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-319000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-292500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-350300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-369100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-395000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-347200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E21" s="3">
         <v>240000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>450000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>543000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>552000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>534000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>562000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>535000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>490000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>517700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>460800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>350000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>478600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>393200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1429,114 +1468,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E23" s="3">
         <v>181000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>372000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>439000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>427000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>421000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>391000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>440000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>412000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>385000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>411700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>364500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>350400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>267400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>312900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>67000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>63000</v>
       </c>
       <c r="I24" s="3">
         <v>63000</v>
       </c>
       <c r="J24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K24" s="3">
         <v>60000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>103100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>89900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>78600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1588,114 +1636,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E26" s="3">
         <v>150000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>317000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>372000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>364000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>358000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>331000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>378000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>355000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>326000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>308600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>274600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>271700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>208100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>239000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E27" s="3">
         <v>131000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>298000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>354000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>346000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>339000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>312000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>360000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>334000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>314000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>289300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>255700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>252900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>189200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>220100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1747,8 +1804,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,24 +1830,24 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>3000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>123000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1800,8 +1860,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,8 +1916,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1906,114 +1972,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E32" s="3">
         <v>552000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>665000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>329000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>278000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>326000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>334000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>382000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>309000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>316000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>319000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>292500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>350300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>369100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>395000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>347200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E33" s="3">
         <v>131000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>298000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>354000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>346000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>339000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>315000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>360000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>334000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>314000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>412300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>255700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>252900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>189200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>220100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2065,119 +2140,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E35" s="3">
         <v>131000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>298000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>354000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>346000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>339000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>315000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>360000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>334000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>314000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>412300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>255700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>252900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>189200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>220100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2197,8 +2281,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2218,114 +2303,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1285000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1431000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1045000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1018000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>870000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>804000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1108000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1299000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1382000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1069000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1520000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1193700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1515500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1308800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1384800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6556000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6227000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3894000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2189000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2866000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2778000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2216000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3162000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1549000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1457000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1354000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>455000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>459400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>496000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>160800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>191600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2377,8 +2469,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2430,8 +2525,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2483,8 +2581,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2536,8 +2637,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,114 +2693,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>752000</v>
+      </c>
+      <c r="E48" s="3">
         <v>751000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>743000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>973000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>975000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>976000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>987000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>790000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>827000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>840000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>847000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>864000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>853300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>855300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>852600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>815500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2409000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2401000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2407000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2465000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2445000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2471000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2503000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2524000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2550000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2560000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2572000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2577000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2582400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2591400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2608600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2620900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2748,8 +2861,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2801,8 +2917,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2854,8 +2973,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2907,61 +3029,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120116000</v>
+      </c>
+      <c r="E54" s="3">
         <v>118425000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113897000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109002000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>108735000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108247000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108203000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108781000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105652000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105358000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104246000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104185000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101988100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>101406800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100045500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>99714100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2981,8 +3109,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3002,8 +3131,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3055,8 +3185,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3108,61 +3241,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2649000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2521000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1304000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1884000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1753000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2074000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1983000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1859000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1855000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1725000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1556000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1737000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1520300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1441600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1643300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1796400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3214,61 +3353,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9174000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9753000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9796000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9849000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9874000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8973000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9400000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8625000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9385000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9726000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8618000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9206000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9200700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8536500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9279100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8309200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3320,8 +3465,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3373,8 +3521,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3426,8 +3577,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3479,61 +3633,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107199000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106111000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102128000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>97207000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>96826000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96579000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96771000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97679000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>94718000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93886000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92938000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93371000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91289300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90752600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89608400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89406000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3553,8 +3713,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3606,8 +3767,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3659,16 +3823,19 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="E70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1203000</v>
       </c>
       <c r="F70" s="3">
         <v>1203000</v>
@@ -3695,16 +3862,16 @@
         <v>1203000</v>
       </c>
       <c r="N70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="O70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1071300</v>
       </c>
       <c r="P70" s="3">
         <v>1071300</v>
       </c>
       <c r="Q70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="R70" s="3">
         <v>1071200</v>
@@ -3712,8 +3879,11 @@
       <c r="S70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3765,61 +3935,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1633000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1657000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2088000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1946000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1750000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1551000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1361000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1196000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>990000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>780000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>588000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>201200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-126200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-226800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3871,8 +4047,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3924,8 +4103,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3977,61 +4159,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10726000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10617000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10566000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10592000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10706000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10465000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10229000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9899000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9731000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10269000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10105000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9743000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9627600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9582900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9365900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9236900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4083,119 +4271,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E81" s="3">
         <v>131000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>298000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>354000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>346000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>339000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>315000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>360000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>334000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>314000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>412300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>255700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>252900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>189200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>220100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4215,61 +4412,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
         <v>59000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>119000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>104000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>73000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>131000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>143000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>122000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>123000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>105900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>96200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>211200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>80300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4321,8 +4522,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4374,8 +4578,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4427,8 +4634,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4480,8 +4690,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4533,61 +4746,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E89" s="3">
         <v>212000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>498000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>676000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>355000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>497000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>582000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>542000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>308000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>294000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>847700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>547600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>395800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>529500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4607,61 +4826,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4713,8 +4936,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4766,61 +4992,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1783000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-184000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-515000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-519000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-682000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-776000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-843100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-737100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-585400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4840,61 +5072,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-155000</v>
       </c>
       <c r="F96" s="3">
         <v>-155000</v>
       </c>
       <c r="G96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="H96" s="3">
         <v>-147000</v>
       </c>
       <c r="I96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-148000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-122000</v>
       </c>
       <c r="L96" s="3">
         <v>-122000</v>
       </c>
       <c r="M96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-87400</v>
       </c>
       <c r="O96" s="3">
         <v>-87400</v>
       </c>
       <c r="P96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-87000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-76600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4946,8 +5182,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4999,8 +5238,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5052,61 +5294,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4361000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4421000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>176000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2477000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>687000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1642400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>252500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>886700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>265400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-221300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5158,57 +5406,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4526000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>597000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-466000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>262000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1373000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>313000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-451000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>326000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-321700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>206700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-76000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-277200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,141 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E8" s="3">
         <v>892000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>902000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>975000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1011000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1052000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1068000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1070000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1056000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1007000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>972000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>914000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>893200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>873000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>846400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>820400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>814900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,8 +913,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +938,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -982,8 +995,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,8 +1054,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,8 +1113,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,10 +1128,10 @@
         <v>-10000</v>
       </c>
       <c r="F15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-12000</v>
       </c>
       <c r="H15" s="3">
         <v>-12000</v>
@@ -1118,7 +1140,7 @@
         <v>-12000</v>
       </c>
       <c r="J15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="K15" s="3">
         <v>-13000</v>
@@ -1130,28 +1152,31 @@
         <v>-13000</v>
       </c>
       <c r="N15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-14000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-13400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-14200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-14400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-14100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1169,120 +1194,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E17" s="3">
         <v>157000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>169000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>252000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>310000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>335000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>315000</v>
       </c>
       <c r="J17" s="3">
         <v>315000</v>
       </c>
       <c r="K17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="L17" s="3">
         <v>283000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>258000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>244000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>210000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>126900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>158000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>154800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E18" s="3">
         <v>735000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>733000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>723000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>701000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>717000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>753000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>755000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>773000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>749000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>728000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>704000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>704300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>714900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>719500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>662400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>660100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,120 +1335,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-371000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-377000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-552000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-665000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-329000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-278000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-326000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-334000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-382000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-309000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-316000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-319000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-292500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-350300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-369100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-395000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-347200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E21" s="3">
         <v>438000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>240000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>450000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>543000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>552000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>534000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>562000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>535000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>490000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>517700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>460800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>350000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>478600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>393200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1471,120 +1510,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E23" s="3">
         <v>358000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>181000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>372000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>439000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>427000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>421000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>391000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>440000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>412000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>385000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>411700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>364500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>350400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>267400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>312900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>67000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>63000</v>
       </c>
       <c r="J24" s="3">
         <v>63000</v>
       </c>
       <c r="K24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="L24" s="3">
         <v>60000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>103100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>89900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>78600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1639,120 +1687,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E26" s="3">
         <v>303000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>150000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>317000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>372000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>364000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>358000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>331000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>378000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>355000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>326000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>308600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>274600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>271700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>208100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>239000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E27" s="3">
         <v>275000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>131000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>298000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>354000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>346000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>339000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>312000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>360000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>334000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>314000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>289300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>255700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>252900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>189200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>220100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +1864,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1833,24 +1893,24 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>3000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>123000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1863,8 +1923,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1919,8 +1982,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1975,120 +2041,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E32" s="3">
         <v>377000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>552000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>665000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>329000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>278000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>326000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>334000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>382000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>309000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>316000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>319000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>292500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>350300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>369100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>395000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>347200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E33" s="3">
         <v>275000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>131000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>298000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>354000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>346000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>339000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>315000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>360000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>334000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>314000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>412300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>255700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>252900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>189200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>220100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2143,125 +2218,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E35" s="3">
         <v>275000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>131000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>298000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>354000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>346000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>339000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>315000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>360000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>334000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>314000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>412300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>255700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>252900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>189200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>220100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2282,8 +2366,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2304,120 +2389,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1029000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1285000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1431000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1045000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1018000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>870000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>804000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1108000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1299000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1382000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1069000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1520000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1193700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1515500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1308800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1384800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6733000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6556000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6227000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3894000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2189000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2866000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2778000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2216000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3162000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1549000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1457000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1354000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>455000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>459400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>496000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>160800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>191600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2472,8 +2564,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2528,8 +2623,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2584,8 +2682,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2640,8 +2741,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2696,120 +2800,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E48" s="3">
         <v>752000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>751000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>743000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>973000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>975000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>976000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>987000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>790000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>827000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>840000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>847000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>864000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>853300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>855300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>852600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>815500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2418000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2409000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2401000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2407000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2465000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2445000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2471000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2503000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2524000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2550000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2560000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2572000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2577000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2582400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2591400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2608600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2620900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2864,8 +2977,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2920,8 +3036,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2976,8 +3095,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3032,64 +3154,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123038000</v>
+      </c>
+      <c r="E54" s="3">
         <v>120116000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118425000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>113897000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109002000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108735000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108247000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108203000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108781000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105652000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105358000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104246000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104185000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>101988100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>101406800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100045500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>99714100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3110,8 +3238,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3132,8 +3261,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3188,8 +3318,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3244,64 +3377,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>2649000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2521000</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>1304000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1884000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1753000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2074000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1983000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1859000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1855000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1725000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1556000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1737000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1520300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1441600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1643300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1796400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3356,64 +3495,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8352000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9174000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9753000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9796000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9849000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9874000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8973000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9400000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8625000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9385000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9726000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8618000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9206000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9200700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8536500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9279100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8309200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3468,8 +3613,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3524,8 +3672,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3580,8 +3731,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3636,64 +3790,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110045000</v>
+      </c>
+      <c r="E66" s="3">
         <v>107199000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106111000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102128000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97207000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>96826000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96579000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96771000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97679000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94718000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>93886000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92938000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93371000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91289300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90752600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89608400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89406000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3714,8 +3874,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3770,8 +3931,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3826,8 +3990,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3835,10 +4002,10 @@
         <v>2191000</v>
       </c>
       <c r="E70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="F70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1203000</v>
       </c>
       <c r="G70" s="3">
         <v>1203000</v>
@@ -3865,16 +4032,16 @@
         <v>1203000</v>
       </c>
       <c r="O70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="P70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>1071300</v>
       </c>
       <c r="Q70" s="3">
         <v>1071300</v>
       </c>
       <c r="R70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="S70" s="3">
         <v>1071200</v>
@@ -3882,8 +4049,11 @@
       <c r="T70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3938,64 +4108,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1752000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1633000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1657000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1946000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1750000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1551000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1361000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1196000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>990000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>780000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>588000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>201200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-126200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-226800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4050,8 +4226,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4106,8 +4285,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4162,64 +4344,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10802000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10726000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10617000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10566000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10592000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10706000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10465000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10229000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9899000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9731000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10269000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10105000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9743000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9627600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9582900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9365900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9236900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4274,125 +4462,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E81" s="3">
         <v>275000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>131000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>298000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>354000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>346000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>339000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>315000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>360000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>334000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>314000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>412300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>255700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>252900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>189200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>220100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4413,64 +4610,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E83" s="3">
         <v>80000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>119000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>104000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>73000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>131000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>143000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>122000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>123000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>105000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>105900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>96200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>211200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4525,8 +4726,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4581,8 +4785,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4637,8 +4844,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4693,8 +4903,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4749,64 +4962,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E89" s="3">
         <v>549000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>212000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>498000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>676000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>46000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>355000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>497000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>582000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>542000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>308000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>294000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>847700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>547600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>395800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>529500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4827,64 +5046,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4939,8 +5162,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4995,64 +5221,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2487000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-184000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-515000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-519000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-682000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-776000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-843100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-737100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-585400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5073,64 +5305,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-153000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-155000</v>
       </c>
       <c r="G96" s="3">
         <v>-155000</v>
       </c>
       <c r="H96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="I96" s="3">
         <v>-147000</v>
       </c>
       <c r="J96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-148000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-122000</v>
       </c>
       <c r="M96" s="3">
         <v>-122000</v>
       </c>
       <c r="N96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-87400</v>
       </c>
       <c r="P96" s="3">
         <v>-87400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-87200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-87000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-76600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5185,8 +5421,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5241,8 +5480,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5297,64 +5539,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2743000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1216000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4361000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4421000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>176000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2477000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>687000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1642400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>252500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>886700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>265400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-221300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5409,60 +5657,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4526000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>597000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-466000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>262000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1373000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>313000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-451000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>326000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-321700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>206700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-76000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-277200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,147 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>869000</v>
+      </c>
+      <c r="E8" s="3">
         <v>878000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>892000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>902000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>975000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1011000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1052000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1068000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1070000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1056000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1007000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>972000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>914000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>893200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>873000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>846400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>820400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>814900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +925,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,8 +951,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,8 +1011,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,8 +1073,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,8 +1135,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,10 +1153,10 @@
         <v>-10000</v>
       </c>
       <c r="G15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-12000</v>
       </c>
       <c r="I15" s="3">
         <v>-12000</v>
@@ -1143,7 +1165,7 @@
         <v>-12000</v>
       </c>
       <c r="K15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="L15" s="3">
         <v>-13000</v>
@@ -1155,28 +1177,31 @@
         <v>-13000</v>
       </c>
       <c r="O15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-14000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-14000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-14200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-14400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-14100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1195,126 +1220,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E17" s="3">
         <v>132000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>157000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>169000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>252000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>310000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>335000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>315000</v>
       </c>
       <c r="K17" s="3">
         <v>315000</v>
       </c>
       <c r="L17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="M17" s="3">
         <v>283000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>258000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>244000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>210000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>188900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>158100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>126900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>158000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>154800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E18" s="3">
         <v>746000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>735000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>733000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>723000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>701000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>717000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>753000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>755000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>773000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>749000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>728000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>704000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>704300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>714900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>719500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>662400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>660100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1336,126 +1368,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-398000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-371000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-377000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-552000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-665000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-329000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-278000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-326000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-334000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-382000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-309000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-316000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-319000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-292500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-350300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-369100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-395000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-347200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E21" s="3">
         <v>484000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>438000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>240000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>177000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>450000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>543000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>552000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>534000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>562000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>535000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>490000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>517700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>460800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>350000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>478600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>393200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,126 +1552,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E23" s="3">
         <v>375000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>358000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>181000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>372000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>439000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>427000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>421000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>391000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>440000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>412000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>385000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>411700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>364500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>350400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>267400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>312900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E24" s="3">
         <v>59000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>67000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>63000</v>
       </c>
       <c r="K24" s="3">
         <v>63000</v>
       </c>
       <c r="L24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="M24" s="3">
         <v>60000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>62000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>103100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>89900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>74000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1690,126 +1738,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E26" s="3">
         <v>316000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>303000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>150000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>317000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>372000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>364000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>358000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>331000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>378000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>355000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>326000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>308600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>274600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>271700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>208100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>239000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E27" s="3">
         <v>281000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>275000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>131000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>298000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>354000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>346000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>339000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>312000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>360000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>334000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>314000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>289300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>255700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>252900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>189200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>220100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +1924,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1896,24 +1956,24 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>3000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>123000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1926,8 +1986,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2048,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2044,126 +2110,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E32" s="3">
         <v>371000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>377000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>552000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>665000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>329000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>278000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>326000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>334000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>382000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>309000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>316000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>319000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>292500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>350300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>369100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>395000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>347200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E33" s="3">
         <v>281000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>275000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>131000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>298000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>354000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>346000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>339000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>315000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>360000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>334000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>314000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>412300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>255700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>252900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>189200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>220100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2221,131 +2296,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E35" s="3">
         <v>281000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>275000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>131000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>298000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>354000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>346000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>339000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>315000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>360000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>334000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>314000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>412300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>255700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>252900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>189200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>220100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +2451,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2390,126 +2475,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1319000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1029000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1285000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1431000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1045000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1018000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>870000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>804000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1108000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1299000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1382000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1069000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1520000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1193700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1515500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1308800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1384800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8884000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6733000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6556000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6227000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3894000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2189000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2866000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2778000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2216000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3162000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1549000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1457000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1354000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>455000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>459400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>496000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>160800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>191600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2567,8 +2659,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2626,8 +2721,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2685,8 +2783,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2744,8 +2845,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2803,126 +2907,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E48" s="3">
         <v>757000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>752000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>751000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>743000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>973000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>975000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>976000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>987000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>790000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>827000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>840000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>847000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>864000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>853300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>855300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>852600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>815500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2470000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2418000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2409000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2401000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2407000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2465000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2445000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2471000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2503000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2524000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2550000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2560000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2572000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2577000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2582400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2591400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2608600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2620900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2980,8 +3093,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3039,8 +3155,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3098,8 +3217,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3157,67 +3279,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125768000</v>
+      </c>
+      <c r="E54" s="3">
         <v>123038000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>120116000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118425000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113897000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109002000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108735000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108247000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108203000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108781000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105652000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105358000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104246000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104185000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>101988100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>101406800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100045500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>99714100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3239,8 +3367,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3262,8 +3391,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3321,8 +3451,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3380,8 +3513,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3394,53 +3530,56 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>1304000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1884000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1753000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2074000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1983000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1859000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1855000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1725000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1556000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1737000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1520300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1441600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1643300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1796400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3498,67 +3637,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7210000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8352000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9174000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9753000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9796000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9849000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9874000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8973000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9400000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8625000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9385000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9726000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8618000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9206000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9200700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8536500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9279100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8309200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3616,8 +3761,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3675,8 +3823,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3734,8 +3885,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3793,67 +3947,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>110045000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107199000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106111000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102128000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97207000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96826000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96579000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96771000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97679000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94718000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>93886000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92938000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93371000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91289300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90752600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89608400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89406000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3875,8 +4035,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3934,8 +4095,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3993,22 +4157,25 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2191000</v>
+        <v>2676000</v>
       </c>
       <c r="E70" s="3">
         <v>2191000</v>
       </c>
       <c r="F70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="G70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1203000</v>
       </c>
       <c r="H70" s="3">
         <v>1203000</v>
@@ -4035,16 +4202,16 @@
         <v>1203000</v>
       </c>
       <c r="P70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1071300</v>
       </c>
       <c r="R70" s="3">
         <v>1071300</v>
       </c>
       <c r="S70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="T70" s="3">
         <v>1071200</v>
@@ -4052,8 +4219,11 @@
       <c r="U70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4111,67 +4281,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1878000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1752000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1633000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1657000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2088000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1946000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1750000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1551000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1361000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1196000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>990000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>780000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>588000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>201200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-126200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-226800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4229,8 +4405,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4288,8 +4467,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4347,67 +4529,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10924000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10802000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10726000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10617000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10566000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10592000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10706000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10465000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10229000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9899000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9731000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10269000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10105000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9743000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9627600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9582900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9365900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9236900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4465,131 +4653,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E81" s="3">
         <v>281000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>275000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>131000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>298000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>354000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>346000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>339000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>315000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>360000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>334000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>314000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>412300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>255700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>252900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>189200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>220100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4611,67 +4808,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E83" s="3">
         <v>109000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>59000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>119000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>104000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>73000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>143000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>122000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>123000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>105000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>96200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>211200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4729,8 +4930,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4788,8 +4992,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4847,8 +5054,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4906,8 +5116,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4965,67 +5178,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E89" s="3">
         <v>64000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>549000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>212000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>498000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>676000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>355000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>497000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>582000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>542000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>308000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>294000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>847700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>547600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>395800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>529500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5047,67 +5266,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5165,8 +5388,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5224,67 +5450,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-184000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-515000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-519000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-682000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-776000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-843100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-737100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-585400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5306,67 +5538,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-154000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-153000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-155000</v>
       </c>
       <c r="H96" s="3">
         <v>-155000</v>
       </c>
       <c r="I96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="J96" s="3">
         <v>-147000</v>
       </c>
       <c r="K96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-148000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-122000</v>
       </c>
       <c r="N96" s="3">
         <v>-122000</v>
       </c>
       <c r="O96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-87400</v>
       </c>
       <c r="Q96" s="3">
         <v>-87400</v>
       </c>
       <c r="R96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="S96" s="3">
         <v>-87200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-87000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-76600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5424,8 +5660,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5483,8 +5722,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5542,67 +5784,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2743000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1216000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4361000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4421000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>176000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2477000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>687000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1642400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>252500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>886700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>265400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-221300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5660,63 +5908,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1994000</v>
+      </c>
+      <c r="E102" s="3">
         <v>320000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4526000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>597000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-466000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>262000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1373000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-83000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>313000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-451000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>326000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-321700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>206700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-76000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-277200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E8" s="3">
         <v>869000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>878000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>892000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>902000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>975000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1011000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1052000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1068000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1070000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1056000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1007000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>972000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>914000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>893200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>873000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>846400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>820400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>814900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -866,8 +872,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +937,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,8 +964,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,8 +1027,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,8 +1092,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,13 +1157,16 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-10000</v>
+        <v>-16000</v>
       </c>
       <c r="E15" s="3">
         <v>-10000</v>
@@ -1156,10 +1178,10 @@
         <v>-10000</v>
       </c>
       <c r="H15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-12000</v>
       </c>
       <c r="J15" s="3">
         <v>-12000</v>
@@ -1168,7 +1190,7 @@
         <v>-12000</v>
       </c>
       <c r="L15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="M15" s="3">
         <v>-13000</v>
@@ -1180,28 +1202,31 @@
         <v>-13000</v>
       </c>
       <c r="P15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-13400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-14000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-14200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-14400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-14100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1221,132 +1246,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-163000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>157000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>169000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>252000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>310000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>335000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>315000</v>
       </c>
       <c r="L17" s="3">
         <v>315000</v>
       </c>
       <c r="M17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="N17" s="3">
         <v>283000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>258000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>244000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>210000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>188900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>158100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>126900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>158000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>154800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1032000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>746000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>735000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>733000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>723000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>701000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>717000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>753000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>755000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>773000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>749000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>728000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>704000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>704300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>714900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>719500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>662400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>660100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,132 +1401,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-398000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-371000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-377000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-552000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-665000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-329000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-278000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-326000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-334000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-382000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-309000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-316000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-319000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-292500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-350300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-369100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-395000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-347200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E21" s="3">
         <v>705000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>484000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>438000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>240000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>177000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>450000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>543000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>552000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>534000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>562000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>535000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>490000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>517700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>460800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>350000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>478600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>393200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,132 +1594,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>634000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>375000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>358000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>181000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>372000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>439000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>427000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>421000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>391000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>440000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>412000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>385000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>411700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>364500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>350400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>267400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>312900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>59000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>67000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>63000</v>
       </c>
       <c r="L24" s="3">
         <v>63000</v>
       </c>
       <c r="M24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="N24" s="3">
         <v>60000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>62000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>103100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>89900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>78600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>74000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1741,132 +1789,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>532000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>316000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>303000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>150000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>317000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>372000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>364000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>358000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>331000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>378000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>355000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>326000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>308600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>274600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>271700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>208100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>239000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E27" s="3">
         <v>501000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>281000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>275000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>131000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>298000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>354000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>346000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>339000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>312000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>360000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>334000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>314000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>289300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>255700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>252900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>189200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>220100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,24 +2019,24 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>3000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>123000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1989,8 +2049,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,8 +2114,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2113,132 +2179,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E32" s="3">
         <v>398000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>371000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>377000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>552000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>665000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>329000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>278000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>326000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>334000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>382000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>309000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>316000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>319000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>292500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>350300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>369100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>395000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>347200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E33" s="3">
         <v>501000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>281000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>275000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>131000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>298000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>354000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>346000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>339000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>315000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>360000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>334000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>314000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>412300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>255700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>252900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>189200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>220100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2299,137 +2374,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E35" s="3">
         <v>501000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>281000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>275000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>131000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>298000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>354000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>346000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>339000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>315000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>360000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>334000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>314000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>412300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>255700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>252900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>189200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>220100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2452,8 +2536,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2476,132 +2561,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1096000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1319000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1029000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1285000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1431000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1045000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1018000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>870000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>804000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1108000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1299000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1382000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1069000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1520000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1193700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1515500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1308800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1384800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14269000</v>
+      </c>
+      <c r="E42" s="3">
         <v>8884000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6733000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6556000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6227000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3894000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2189000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2866000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2778000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2216000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3162000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1549000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1457000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1354000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>455000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>459400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>496000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>160800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>191600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2662,8 +2754,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2724,8 +2819,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2786,8 +2884,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2848,8 +2949,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2910,132 +3014,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E48" s="3">
         <v>747000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>757000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>752000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>751000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>743000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>973000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>975000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>976000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>987000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>790000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>827000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>840000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>847000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>864000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>853300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>855300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>852600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>815500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5935000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2470000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2418000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2409000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2401000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2407000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2465000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2445000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2471000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2503000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2524000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2550000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2560000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2572000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2577000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2582400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2591400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2608600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2620900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3096,8 +3209,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3158,8 +3274,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3220,8 +3339,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3282,70 +3404,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175172000</v>
+      </c>
+      <c r="E54" s="3">
         <v>125768000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123038000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>120116000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118425000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113897000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109002000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108735000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108247000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108203000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108781000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105652000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105358000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104246000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104185000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>101988100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>101406800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>100045500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>99714100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3368,8 +3496,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3392,8 +3521,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3454,8 +3584,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3516,8 +3649,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3533,53 +3669,56 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>1304000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1884000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1753000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2074000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1983000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1859000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1855000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1725000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1737000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1520300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1441600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1643300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1796400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3640,70 +3779,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7128000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7210000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8352000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9174000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9753000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9796000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9849000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9874000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8973000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9400000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8625000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9385000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9726000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8618000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9206000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9200700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8536500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9279100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8309200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3764,8 +3909,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3826,8 +3974,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3888,8 +4039,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3950,70 +4104,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154661000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110045000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>107199000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106111000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102128000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97207000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96826000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96579000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>96771000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97679000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94718000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>93886000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92938000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93371000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91289300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90752600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89608400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89406000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4036,8 +4196,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4098,8 +4259,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4160,25 +4324,28 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2851000</v>
+      </c>
+      <c r="E70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2191000</v>
       </c>
       <c r="F70" s="3">
         <v>2191000</v>
       </c>
       <c r="G70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="H70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1203000</v>
       </c>
       <c r="I70" s="3">
         <v>1203000</v>
@@ -4205,16 +4372,16 @@
         <v>1203000</v>
       </c>
       <c r="Q70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="R70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="R70" s="3">
-        <v>1071300</v>
       </c>
       <c r="S70" s="3">
         <v>1071300</v>
       </c>
       <c r="T70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="U70" s="3">
         <v>1071200</v>
@@ -4222,8 +4389,11 @@
       <c r="V70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4284,70 +4454,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2223000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1878000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1752000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1633000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1657000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2088000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1946000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1750000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1551000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1361000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1196000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>990000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>780000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>588000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>201200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-126200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-226800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4408,8 +4584,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4470,8 +4649,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4532,70 +4714,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17660000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10924000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10802000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10726000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10617000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10566000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10592000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10706000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10465000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10229000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9899000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9731000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10269000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10105000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9743000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9627600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9582900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9365900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9236900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4656,137 +4844,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E81" s="3">
         <v>501000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>281000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>275000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>131000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>298000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>354000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>346000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>339000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>315000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>360000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>334000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>314000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>412300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>255700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>252900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>189200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>220100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4809,70 +5006,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E83" s="3">
         <v>71000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>109000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>59000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>119000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>78000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>104000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>143000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>122000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>123000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>105900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>96200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>211200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>80300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4933,8 +5134,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4995,8 +5199,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5057,8 +5264,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5119,8 +5329,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5181,70 +5394,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-111000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>64000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>549000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>212000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>498000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>676000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>46000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>355000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>497000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>582000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>542000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>308000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>294000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>847700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>547600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>395800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>529500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5267,70 +5486,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-57100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5391,8 +5614,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5453,70 +5679,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4362000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-376000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-184000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-515000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-519000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-682000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-776000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-843100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-737100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-585400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5539,70 +5771,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-153000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-154000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-153000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-155000</v>
       </c>
       <c r="I96" s="3">
         <v>-155000</v>
       </c>
       <c r="J96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="K96" s="3">
         <v>-147000</v>
       </c>
       <c r="L96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-148000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-122000</v>
       </c>
       <c r="O96" s="3">
         <v>-122000</v>
       </c>
       <c r="P96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-87400</v>
       </c>
       <c r="R96" s="3">
         <v>-87400</v>
       </c>
       <c r="S96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-87200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-87000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-76600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5663,8 +5899,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5725,8 +5964,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5787,70 +6029,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-795000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2481000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2743000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1216000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4361000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4421000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>176000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2477000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>687000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1642400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>252500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>886700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>265400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-221300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5911,66 +6159,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4666000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1994000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>320000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4526000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>597000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-466000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>262000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1373000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-83000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>313000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-451000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>326000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-321700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>206700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-76000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-277200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,159 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E8" s="3">
         <v>935000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>869000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>878000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>892000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>902000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>975000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1011000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1052000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1068000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1070000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1056000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1007000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>972000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>914000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>893200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>873000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>846400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>820400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>814900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -875,8 +881,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +977,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,8 +1043,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,8 +1111,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,16 +1179,19 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-10000</v>
       </c>
       <c r="F15" s="3">
         <v>-10000</v>
@@ -1181,10 +1203,10 @@
         <v>-10000</v>
       </c>
       <c r="I15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-12000</v>
       </c>
       <c r="K15" s="3">
         <v>-12000</v>
@@ -1193,7 +1215,7 @@
         <v>-12000</v>
       </c>
       <c r="M15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="N15" s="3">
         <v>-13000</v>
@@ -1205,28 +1227,31 @@
         <v>-13000</v>
       </c>
       <c r="Q15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="R15" s="3">
         <v>-14000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-13400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-14000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-14200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-14400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-14100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1247,138 +1272,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E17" s="3">
         <v>308000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-163000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>157000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>169000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>252000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>310000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>315000</v>
       </c>
       <c r="M17" s="3">
         <v>315000</v>
       </c>
       <c r="N17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="O17" s="3">
         <v>283000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>258000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>244000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>210000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>188900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>158100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>126900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>158000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>154800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1222000</v>
+      </c>
+      <c r="E18" s="3">
         <v>627000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1032000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>746000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>735000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>733000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>723000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>701000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>717000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>753000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>755000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>773000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>749000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>728000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>704000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>704300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>714900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>719500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>662400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>660100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1402,138 +1434,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-628000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-398000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-371000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-377000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-552000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-665000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-329000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-278000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-326000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-334000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-382000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-309000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-316000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-319000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-292500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-350300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-369100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-395000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-347200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E21" s="3">
         <v>202000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>705000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>484000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>438000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>240000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>177000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>450000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>543000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>552000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>534000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>562000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>535000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>490000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>517700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>460800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>350000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>478600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>393200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,138 +1636,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>634000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>375000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>358000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>181000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>58000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>372000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>439000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>427000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>421000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>391000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>440000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>412000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>385000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>411700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>364500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>350400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>267400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>312900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E24" s="3">
         <v>14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>59000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>63000</v>
       </c>
       <c r="M24" s="3">
         <v>63000</v>
       </c>
       <c r="N24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="O24" s="3">
         <v>60000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>62000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>103100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>89900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>78600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>74000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>532000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>316000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>303000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>150000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>317000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>372000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>364000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>358000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>331000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>378000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>355000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>326000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>308600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>274600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>271700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>208100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>239000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-58000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>501000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>281000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>275000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>131000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>298000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>354000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>346000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>339000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>312000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>360000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>334000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>314000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>289300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>255700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>252900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>189200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>220100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,8 +2044,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,24 +2082,24 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>3000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>123000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2052,8 +2112,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2182,138 +2248,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E32" s="3">
         <v>628000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>398000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>371000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>377000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>552000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>665000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>329000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>278000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>326000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>334000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>382000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>309000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>316000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>319000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>292500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>350300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>369100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>395000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>347200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-58000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>501000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>281000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>275000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>131000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>298000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>354000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>346000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>339000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>315000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>360000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>334000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>314000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>412300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>255700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>252900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>189200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>220100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2377,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-58000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>501000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>281000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>275000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>131000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>298000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>354000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>346000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>339000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>315000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>360000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>334000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>314000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>412300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>255700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>252900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>189200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>220100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2562,138 +2647,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1611000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1479000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1096000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1319000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1029000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1285000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1431000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1045000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1018000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>870000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>804000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1108000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1299000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1382000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1069000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1520000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1193700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1515500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1308800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1384800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10530000</v>
+      </c>
+      <c r="E42" s="3">
         <v>14269000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8884000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6733000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6556000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6227000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3894000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2189000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2866000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2778000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2216000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3162000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1549000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1457000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1354000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>455000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>459400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>496000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>160800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>191600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2757,8 +2849,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2822,8 +2917,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2887,8 +2985,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2952,8 +3053,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3017,138 +3121,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1128000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>747000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>757000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>752000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>751000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>743000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>973000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>975000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>976000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>987000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>790000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>827000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>840000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>847000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>864000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>853300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>855300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>852600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>815500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5930000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5935000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2470000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2418000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2409000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2401000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2407000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2465000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2445000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2471000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2503000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2524000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2550000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2560000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2572000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2577000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2582400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2591400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2608600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2620900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3212,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3277,8 +3393,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3342,8 +3461,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3407,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>173878000</v>
+      </c>
+      <c r="E54" s="3">
         <v>175172000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125768000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123038000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>120116000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118425000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113897000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109002000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108735000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108247000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108203000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108781000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105652000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105358000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104246000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104185000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>101988100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>101406800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100045500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>99714100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3522,8 +3651,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3587,8 +3717,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3652,8 +3785,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3672,53 +3808,56 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>1304000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1884000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1753000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2074000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1983000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1859000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1855000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1725000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1556000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1737000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1520300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1441600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1643300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1796400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3782,73 +3921,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7563000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7128000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7210000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8352000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9174000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9753000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9796000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9849000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9874000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8973000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9400000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8625000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9385000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9726000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8618000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9206000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9200700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8536500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9279100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8309200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3912,8 +4057,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4042,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4107,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154399000</v>
+      </c>
+      <c r="E66" s="3">
         <v>154661000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110045000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>107199000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106111000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102128000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>97207000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96826000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>96579000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>96771000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97679000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>94718000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>93886000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>92938000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>93371000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91289300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90752600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89608400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89406000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4197,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4262,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4327,28 +4491,31 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2267000</v>
+      </c>
+      <c r="E70" s="3">
         <v>2851000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2191000</v>
       </c>
       <c r="G70" s="3">
         <v>2191000</v>
       </c>
       <c r="H70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="I70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1203000</v>
       </c>
       <c r="J70" s="3">
         <v>1203000</v>
@@ -4375,16 +4542,16 @@
         <v>1203000</v>
       </c>
       <c r="R70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="S70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1071300</v>
       </c>
       <c r="T70" s="3">
         <v>1071300</v>
       </c>
       <c r="U70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="V70" s="3">
         <v>1071200</v>
@@ -4392,8 +4559,11 @@
       <c r="W70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4457,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2051000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1939000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2223000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1878000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1752000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1633000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1657000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2088000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1946000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1750000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1551000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1361000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1196000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>990000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>780000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>588000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>201200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-126200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-226800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4587,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4652,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4717,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17212000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17660000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10924000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10802000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10726000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10617000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10566000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10592000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10706000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10465000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10229000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9899000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9731000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10269000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10105000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9743000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9627600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9582900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9365900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9236900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-58000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>501000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>281000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>275000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>131000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>298000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>354000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>346000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>339000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>315000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>360000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>334000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>314000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>412300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>255700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>252900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>189200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>220100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5007,73 +5204,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E83" s="3">
         <v>203000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>109000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>59000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>119000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>131000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>143000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>122000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>123000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>105000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>105900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>96200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>211200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>80300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5137,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5202,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5267,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5332,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5397,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1099000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-111000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>64000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>549000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>212000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>498000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>676000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>355000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>497000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>582000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>542000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>308000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>294000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>847700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>547600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>163000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>395800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>529500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5487,73 +5706,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-77000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-57100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-55500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5617,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5682,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3197000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4362000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-376000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-184000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-515000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-519000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-682000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-776000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-843100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-737100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-585400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5772,73 +6004,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-155000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-153000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-154000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-153000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-155000</v>
       </c>
       <c r="J96" s="3">
         <v>-155000</v>
       </c>
       <c r="K96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="L96" s="3">
         <v>-147000</v>
       </c>
       <c r="M96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-148000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-122000</v>
       </c>
       <c r="P96" s="3">
         <v>-122000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-87400</v>
       </c>
       <c r="S96" s="3">
         <v>-87400</v>
       </c>
       <c r="T96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-87200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-87000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-76600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5902,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6032,73 +6274,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-890000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-795000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2481000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2743000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1216000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4361000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4421000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>176000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2477000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-106000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>687000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>31000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1642400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>252500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>886700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>265400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-221300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6162,69 +6410,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3510000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4666000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1994000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>320000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4526000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>597000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-466000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>262000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1373000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-83000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>313000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-451000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>326000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-321700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>206700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-76000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-277200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1205000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>935000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>869000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>878000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>892000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>902000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>975000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1011000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1052000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1068000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1070000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1056000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1007000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>972000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>914000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>893200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>873000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>846400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>820400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>814900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,8 +890,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +961,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,8 +1059,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,8 +1130,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,19 +1201,22 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-32000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-10000</v>
       </c>
       <c r="G15" s="3">
         <v>-10000</v>
@@ -1206,10 +1228,10 @@
         <v>-10000</v>
       </c>
       <c r="J15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-12000</v>
       </c>
       <c r="L15" s="3">
         <v>-12000</v>
@@ -1218,7 +1240,7 @@
         <v>-12000</v>
       </c>
       <c r="N15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="O15" s="3">
         <v>-13000</v>
@@ -1230,28 +1252,31 @@
         <v>-13000</v>
       </c>
       <c r="R15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="S15" s="3">
         <v>-14000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-13400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-14000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-14200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-14400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-14100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-17000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>308000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-163000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>169000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>252000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>310000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>335000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>315000</v>
       </c>
       <c r="N17" s="3">
         <v>315000</v>
       </c>
       <c r="O17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="P17" s="3">
         <v>283000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>258000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>244000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>210000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>188900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>158100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>126900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>158000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>154800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1196000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1222000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>627000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1032000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>746000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>735000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>733000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>723000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>701000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>717000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>753000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>755000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>773000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>749000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>728000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>704000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>704300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>714900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>719500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>662400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>660100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1435,144 +1467,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-706000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-754000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-628000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-398000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-371000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-377000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-552000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-665000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-329000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-278000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-326000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-334000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-382000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-309000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-316000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-319000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-292500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-350300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-369100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-395000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-347200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E21" s="3">
         <v>493000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>202000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>705000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>484000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>438000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>240000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>177000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>450000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>543000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>552000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>534000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>562000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>535000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>490000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>517700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>460800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>350000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>478600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>393200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1639,144 +1678,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E23" s="3">
         <v>468000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>634000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>375000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>358000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>181000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>58000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>372000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>439000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>427000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>421000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>391000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>440000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>412000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>385000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>411700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>364500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>350400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>267400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>312900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E24" s="3">
         <v>90000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>102000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>59000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>63000</v>
       </c>
       <c r="N24" s="3">
         <v>63000</v>
       </c>
       <c r="O24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="P24" s="3">
         <v>60000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>62000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>103100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>89900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>78600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>74000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E26" s="3">
         <v>378000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>532000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>316000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>303000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>150000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>317000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>372000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>364000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>358000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>331000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>378000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>355000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>326000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>308600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>274600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>271700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>208100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>239000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E27" s="3">
         <v>333000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>501000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>281000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>275000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>131000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>298000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>354000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>346000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>339000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>312000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>360000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>334000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>314000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>289300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>255700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>252900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>189200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>220100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2047,8 +2104,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2085,24 +2145,24 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>3000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>123000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2115,8 +2175,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2251,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E32" s="3">
         <v>754000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>628000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>398000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>371000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>377000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>552000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>665000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>329000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>278000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>326000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>334000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>382000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>309000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>316000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>319000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>292500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>350300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>369100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>395000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>347200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E33" s="3">
         <v>333000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>501000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>281000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>275000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>131000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>298000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>354000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>346000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>339000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>315000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>360000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>334000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>314000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>412300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>255700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>252900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>189200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>220100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E35" s="3">
         <v>333000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>501000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>281000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>275000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>131000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>298000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>354000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>346000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>339000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>315000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>360000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>334000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>314000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>412300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>255700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>252900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>189200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>220100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2648,144 +2733,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1811000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1611000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1479000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1096000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1319000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1029000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1285000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1431000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1045000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1018000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>870000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>804000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1108000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1299000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1382000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1069000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1520000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1193700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1515500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1308800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1384800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6299000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10530000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14269000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8884000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6733000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6556000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6227000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3894000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2189000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2866000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2778000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2216000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3162000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1457000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1354000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>455000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>459400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>496000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>160800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>191600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2852,8 +2944,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2920,8 +3015,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2988,8 +3086,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3056,8 +3157,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3124,144 +3228,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1164000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1126000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1128000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>747000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>757000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>752000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>751000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>743000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>973000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>975000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>976000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>987000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>790000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>827000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>840000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>847000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>864000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>853300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>855300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>852600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>815500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5960000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5930000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5935000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2470000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2418000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2409000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2401000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2407000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2465000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2445000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2471000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2503000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2524000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2550000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2560000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2572000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2577000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2582400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2591400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2608600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2620900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3396,8 +3512,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3464,8 +3583,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>174064000</v>
+      </c>
+      <c r="E54" s="3">
         <v>173878000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>175172000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125768000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123038000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>120116000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118425000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113897000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109002000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108735000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108247000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108203000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108781000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105652000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105358000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104246000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104185000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>101988100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>101406800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100045500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>99714100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3652,8 +3781,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3720,8 +3850,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3788,8 +3921,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3811,53 +3947,56 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>1304000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1884000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1753000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2074000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1983000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1859000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1855000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1725000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1556000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1737000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1520300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1441600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1643300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1796400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3924,76 +4063,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6893000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7563000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7128000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7210000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8352000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9174000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9753000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9796000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9849000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9874000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8973000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9400000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8625000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9385000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9726000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8618000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9206000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9200700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8536500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9279100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8309200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4060,8 +4205,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154767000</v>
+      </c>
+      <c r="E66" s="3">
         <v>154399000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154661000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110045000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>107199000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106111000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102128000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97207000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>96826000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>96579000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>96771000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>97679000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>94718000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>93886000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>92938000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>93371000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91289300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90752600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89608400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89406000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4494,31 +4658,34 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="E70" s="3">
         <v>2267000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2851000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2191000</v>
       </c>
       <c r="H70" s="3">
         <v>2191000</v>
       </c>
       <c r="I70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="J70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1203000</v>
       </c>
       <c r="K70" s="3">
         <v>1203000</v>
@@ -4545,16 +4712,16 @@
         <v>1203000</v>
       </c>
       <c r="S70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="T70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1071300</v>
       </c>
       <c r="U70" s="3">
         <v>1071300</v>
       </c>
       <c r="V70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="W70" s="3">
         <v>1071200</v>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2051000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1939000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2223000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1878000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1752000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1633000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1657000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2088000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1946000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1750000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1551000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1361000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>990000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>780000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>588000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>201200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-126200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-226800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17130000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17212000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17660000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10924000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10802000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10726000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10617000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10566000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10592000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10706000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10465000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10229000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9899000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9731000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10269000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10105000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9743000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9627600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9582900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9365900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9236900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E81" s="3">
         <v>333000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>501000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>281000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>275000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>131000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>298000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>354000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>346000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>339000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>315000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>360000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>334000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>314000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>412300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>255700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>252900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>189200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>220100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5205,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E83" s="3">
         <v>25000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>203000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>109000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>59000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>119000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>104000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>131000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>143000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>122000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>123000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>105000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>105900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>96200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>211200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>80300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E89" s="3">
         <v>577000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1099000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-111000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>64000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>549000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>212000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>498000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>676000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>46000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>355000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>497000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>582000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>542000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>308000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>294000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>847700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>547600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>163000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>395800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>529500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5707,76 +5926,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-77000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-57100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-56800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4751000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4362000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-376000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-184000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-515000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-519000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-682000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-776000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-843100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-737100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-585400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6005,76 +6237,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-219000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-223000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-155000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-153000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-154000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-153000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-155000</v>
       </c>
       <c r="K96" s="3">
         <v>-155000</v>
       </c>
       <c r="L96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="M96" s="3">
         <v>-147000</v>
       </c>
       <c r="N96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-148000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-122000</v>
       </c>
       <c r="Q96" s="3">
         <v>-122000</v>
       </c>
       <c r="R96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-87400</v>
       </c>
       <c r="T96" s="3">
         <v>-87400</v>
       </c>
       <c r="U96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="V96" s="3">
         <v>-87200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-87000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-76600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6277,76 +6519,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-890000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-795000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2481000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2743000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1216000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4361000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4421000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>176000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2477000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>687000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>31000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1642400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>252500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>886700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>265400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-221300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6413,72 +6661,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4223000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4666000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1994000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>320000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4526000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>597000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-466000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>262000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1373000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>313000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-451000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>326000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-321700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>206700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-76000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-277200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,171 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1182000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1205000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>935000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>869000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>878000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>892000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>902000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>975000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1011000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1052000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1068000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1070000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1007000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>972000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>914000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>893200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>873000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>846400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>820400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>814900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,8 +899,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +973,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1062,8 +1075,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1149,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1204,22 +1223,25 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-31000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-32000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-10000</v>
       </c>
       <c r="H15" s="3">
         <v>-10000</v>
@@ -1231,10 +1253,10 @@
         <v>-10000</v>
       </c>
       <c r="K15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="L15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-12000</v>
       </c>
       <c r="M15" s="3">
         <v>-12000</v>
@@ -1243,7 +1265,7 @@
         <v>-12000</v>
       </c>
       <c r="O15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="P15" s="3">
         <v>-13000</v>
@@ -1255,28 +1277,31 @@
         <v>-13000</v>
       </c>
       <c r="S15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="T15" s="3">
         <v>-14000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-13400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-14000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-14200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-14400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-14100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1324,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-14000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-17000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>308000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-163000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>157000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>169000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>252000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>310000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>335000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>315000</v>
       </c>
       <c r="O17" s="3">
         <v>315000</v>
       </c>
       <c r="P17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>283000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>258000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>244000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>210000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>188900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>158100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>126900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>158000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>154800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1196000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1222000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>627000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1032000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>746000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>735000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>733000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>723000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>701000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>717000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>753000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>755000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>773000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>749000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>728000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>704000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>704300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>714900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>719500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>662400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>660100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,150 +1500,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-554000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-706000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-754000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-628000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-398000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-371000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-377000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-552000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-665000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-329000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-278000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-326000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-334000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-382000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-309000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-316000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-319000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-292500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-350300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-369100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-395000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-347200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E21" s="3">
         <v>582000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>493000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>202000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>705000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>484000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>438000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>240000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>177000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>450000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>543000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>552000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>534000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>562000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>535000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>490000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>517700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>460800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>350000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>478600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>393200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1681,150 +1720,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E23" s="3">
         <v>490000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>468000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>634000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>375000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>358000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>181000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>372000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>439000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>427000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>421000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>391000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>440000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>412000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>385000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>411700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>364500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>350400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>267400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>312900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E24" s="3">
         <v>88000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>90000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>59000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>63000</v>
       </c>
       <c r="O24" s="3">
         <v>63000</v>
       </c>
       <c r="P24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>60000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>62000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>103100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>89900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>78600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>59300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>74000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1942,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E26" s="3">
         <v>402000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>378000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>532000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>316000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>303000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>150000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>317000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>372000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>364000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>358000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>331000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>378000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>355000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>326000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>308600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>274600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>271700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>208100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>239000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E27" s="3">
         <v>377000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>333000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-58000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>501000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>281000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>275000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>131000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>298000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>354000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>346000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>339000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>312000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>360000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>334000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>314000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>289300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>255700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>252900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>189200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>220100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,31 +2164,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2148,24 +2208,24 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>123000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2178,8 +2238,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2312,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2386,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E32" s="3">
         <v>706000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>754000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>628000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>398000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>371000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>377000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>552000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>665000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>329000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>278000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>326000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>334000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>382000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>309000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>316000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>319000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>292500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>350300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>369100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>395000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>347200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E33" s="3">
         <v>377000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>333000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-58000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>501000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>281000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>275000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>131000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>298000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>354000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>346000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>339000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>315000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>360000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>334000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>314000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>412300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>255700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>252900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>189200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>220100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2608,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E35" s="3">
         <v>377000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>333000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-58000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>501000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>281000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>275000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>131000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>298000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>354000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>346000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>339000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>315000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>360000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>334000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>314000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>412300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>255700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>252900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>189200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>220100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2791,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,150 +2819,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1811000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1611000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1479000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1096000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1319000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1029000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1285000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1431000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1045000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1018000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>870000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>804000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1299000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1382000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1069000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1520000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1193700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1515500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1308800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1384800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6299000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10530000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14269000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8884000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6733000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6556000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6227000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3894000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2189000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2866000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2778000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2216000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3162000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1549000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1457000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1354000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>455000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>459400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>496000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>160800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>191600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2947,8 +3039,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3018,8 +3113,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3089,8 +3187,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3160,8 +3261,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3231,150 +3335,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1173000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1164000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1126000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1128000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>747000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>757000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>752000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>751000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>743000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>973000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>975000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>976000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>987000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>790000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>827000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>840000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>847000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>864000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>853300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>855300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>852600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>815500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6014000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5960000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5930000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5935000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2470000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2418000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2409000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2401000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2407000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2465000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2445000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2471000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2503000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2524000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2550000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2560000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2572000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2577000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2582400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2591400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2608600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2620900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3557,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,8 +3631,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3586,8 +3705,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3779,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176856000</v>
+      </c>
+      <c r="E54" s="3">
         <v>174064000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>173878000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>175172000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125768000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123038000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>120116000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118425000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113897000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109002000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108735000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108247000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108203000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108781000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105652000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105358000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104246000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104185000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>101988100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>101406800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>100045500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>99714100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +3883,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,8 +3911,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3853,8 +3983,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3924,79 +4057,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>1304000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1884000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1753000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2074000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1983000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1859000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1855000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1725000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1556000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1737000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1520300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1441600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1643300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1796400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4066,79 +4205,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6294000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6893000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7563000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7128000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7210000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8352000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9174000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9753000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9796000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9849000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9874000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8973000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9400000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8625000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9385000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9726000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8618000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9206000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9200700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8536500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9279100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8309200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4208,8 +4353,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4427,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4501,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4575,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158404000</v>
+      </c>
+      <c r="E66" s="3">
         <v>154767000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154399000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154661000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112168000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110045000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>107199000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106111000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102128000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97207000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>96826000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>96579000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>96771000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>97679000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>94718000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>93886000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>92938000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>93371000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>91289300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90752600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89608400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89406000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4679,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4751,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4825,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4670,25 +4837,25 @@
         <v>2167000</v>
       </c>
       <c r="E70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="F70" s="3">
         <v>2267000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2851000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2191000</v>
       </c>
       <c r="I70" s="3">
         <v>2191000</v>
       </c>
       <c r="J70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="K70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1203000</v>
       </c>
       <c r="L70" s="3">
         <v>1203000</v>
@@ -4715,16 +4882,16 @@
         <v>1203000</v>
       </c>
       <c r="T70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="U70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="U70" s="3">
-        <v>1071300</v>
       </c>
       <c r="V70" s="3">
         <v>1071300</v>
       </c>
       <c r="W70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="X70" s="3">
         <v>1071200</v>
@@ -4732,8 +4899,11 @@
       <c r="Y70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +4973,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2202000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2051000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1939000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2223000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1878000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1752000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1633000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1657000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2088000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1946000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1750000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1551000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1361000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1196000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>990000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>780000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>588000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>201200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>33600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-126200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-226800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5121,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5195,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5269,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16285000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17130000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17212000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17660000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10924000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10802000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10726000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10617000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10566000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10592000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10706000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10465000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10229000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9899000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9731000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10269000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10105000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9743000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9627600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9582900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9365900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9236900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5417,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E81" s="3">
         <v>377000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>333000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-58000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>501000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>281000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>275000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>131000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>298000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>354000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>346000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>339000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>315000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>360000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>334000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>314000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>412300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>255700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>252900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>189200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>220100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,79 +5600,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E83" s="3">
         <v>92000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>203000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>109000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>119000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>104000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>73000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>131000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>143000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>122000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>123000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>105000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>105900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>96200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>211200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>80300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5746,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +5820,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +5894,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +5968,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6042,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E89" s="3">
         <v>497000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>577000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1099000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-111000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>64000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>549000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>212000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>498000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>676000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>46000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>355000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>497000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>582000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>542000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>308000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>294000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>847700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>547600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>163000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>395800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>529500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,79 +6146,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-90000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-77000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-49400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-57100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-55500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6292,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6366,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5355000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4362000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-376000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-184000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-515000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-519000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-682000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-776000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-843100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-737100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-585400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,79 +6470,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-219000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-223000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-155000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-153000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-154000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-153000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-155000</v>
       </c>
       <c r="L96" s="3">
         <v>-155000</v>
       </c>
       <c r="M96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="N96" s="3">
         <v>-147000</v>
       </c>
       <c r="O96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-148000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-122000</v>
       </c>
       <c r="R96" s="3">
         <v>-122000</v>
       </c>
       <c r="S96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-87400</v>
       </c>
       <c r="U96" s="3">
         <v>-87400</v>
       </c>
       <c r="V96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="W96" s="3">
         <v>-87200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-87000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-76600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6616,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6690,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,79 +6764,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3508000</v>
+      </c>
+      <c r="E100" s="3">
         <v>31000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-890000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-795000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2481000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2743000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1216000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4361000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4421000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>176000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-106000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>687000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>31000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1642400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>252500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>886700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>265400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-221300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6664,75 +6912,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-998000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4666000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1994000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>320000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4526000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>597000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-466000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>262000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1373000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-83000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>313000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-451000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>326000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-321700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>206700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-76000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-277200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1195000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1182000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1205000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>935000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>869000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>878000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>892000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>902000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>975000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1011000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1052000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1068000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1070000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1056000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1007000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>972000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>914000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>893200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>873000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>846400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>820400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>814900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -902,8 +908,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +985,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1016,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,8 +1091,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,8 +1168,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1226,25 +1245,28 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-28000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-31000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-32000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-10000</v>
       </c>
       <c r="I15" s="3">
         <v>-10000</v>
@@ -1256,10 +1278,10 @@
         <v>-10000</v>
       </c>
       <c r="L15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-12000</v>
       </c>
       <c r="N15" s="3">
         <v>-12000</v>
@@ -1268,7 +1290,7 @@
         <v>-12000</v>
       </c>
       <c r="P15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="Q15" s="3">
         <v>-13000</v>
@@ -1280,28 +1302,31 @@
         <v>-13000</v>
       </c>
       <c r="T15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="U15" s="3">
         <v>-14000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-13400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-14000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-14200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-14100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1325,156 +1350,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E17" s="3">
         <v>74000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-14000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-17000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>308000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-163000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>169000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>252000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>310000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>335000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>315000</v>
       </c>
       <c r="P17" s="3">
         <v>315000</v>
       </c>
       <c r="Q17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="R17" s="3">
         <v>283000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>258000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>244000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>210000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>188900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>158100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>126900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>158000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>154800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1121000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1196000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1222000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>627000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1032000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>746000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>735000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>733000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>723000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>701000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>717000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>753000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>755000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>773000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>749000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>728000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>704000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>704300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>714900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>719500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>662400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>660100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,156 +1533,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-533000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-554000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-706000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-754000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-628000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-398000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-371000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-377000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-552000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-665000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-329000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-278000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-326000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-334000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-382000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-309000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-316000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-319000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-292500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-350300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-369100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-395000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-347200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E21" s="3">
         <v>679000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>582000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>493000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>202000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>705000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>484000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>438000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>240000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>177000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>450000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>543000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>552000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>534000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>562000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>535000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>490000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>517700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>460800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>350000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>478600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>393200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,156 +1762,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E23" s="3">
         <v>567000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>490000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>468000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>634000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>375000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>358000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>181000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>372000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>439000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>427000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>421000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>391000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>440000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>412000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>385000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>411700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>364500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>350400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>267400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>312900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E24" s="3">
         <v>105000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>88000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>90000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>102000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>59000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>63000</v>
       </c>
       <c r="P24" s="3">
         <v>63000</v>
       </c>
       <c r="Q24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="R24" s="3">
         <v>60000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>62000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>103100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>89900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>78600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>74000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,156 +1993,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E26" s="3">
         <v>462000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>402000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>378000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>532000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>316000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>303000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>317000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>372000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>364000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>358000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>331000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>378000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>355000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>326000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>308600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>274600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>271700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>208100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>239000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E27" s="3">
         <v>432000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>377000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>333000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>501000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>281000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>275000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>298000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>354000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>346000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>339000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>312000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>360000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>334000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>314000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>289300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>255700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>252900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>189200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>220100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2167,8 +2224,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2253,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2211,24 +2271,24 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>3000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>123000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2241,8 +2301,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2315,8 +2378,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2389,156 +2455,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E32" s="3">
         <v>554000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>706000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>754000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>628000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>398000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>371000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>377000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>552000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>665000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>329000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>278000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>326000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>334000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>382000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>309000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>316000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>319000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>292500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>350300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>369100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>395000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>347200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E33" s="3">
         <v>432000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>377000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>333000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>501000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>281000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>275000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>131000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>298000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>354000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>346000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>339000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>315000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>360000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>334000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>314000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>412300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>255700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>252900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>189200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>220100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2611,161 +2686,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E35" s="3">
         <v>432000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>377000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>333000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>501000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>281000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>275000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>131000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>298000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>354000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>346000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>339000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>315000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>360000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>334000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>314000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>412300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>255700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>252900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>189200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>220100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +2876,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2820,156 +2905,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1708000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1811000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1611000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1479000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1096000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1319000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1029000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1285000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1431000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1045000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1018000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>870000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>804000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1108000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1299000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1382000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1069000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1520000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1193700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1515500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1308800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1384800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4602000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5199000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6299000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10530000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14269000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8884000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6733000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6556000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6227000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3894000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2189000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2866000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2778000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2216000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3162000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1549000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1457000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1354000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>455000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>459400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>496000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>160800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>191600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3042,8 +3134,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3116,8 +3211,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3190,8 +3288,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3264,8 +3365,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3338,156 +3442,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1173000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1164000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1126000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1128000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>747000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>757000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>752000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>751000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>743000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>973000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>975000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>976000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>987000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>790000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>827000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>840000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>847000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>864000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>853300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>855300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>852600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>815500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6274000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6014000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5960000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5930000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5935000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2470000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2418000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2409000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2401000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2407000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2465000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2445000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2471000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2503000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2524000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2550000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2560000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2572000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2577000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2582400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2591400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2608600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2620900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3560,8 +3673,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3634,8 +3750,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3708,8 +3827,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3782,82 +3904,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>178782000</v>
+      </c>
+      <c r="E54" s="3">
         <v>176856000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>174064000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>173878000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>175172000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125768000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123038000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>120116000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118425000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113897000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109002000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108735000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108247000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108203000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108781000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105652000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105358000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104246000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104185000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>101988100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>101406800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>100045500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>99714100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3884,8 +4012,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3912,8 +4041,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3986,8 +4116,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4060,8 +4193,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4086,56 +4222,59 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>1304000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1884000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1753000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2074000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1983000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1859000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1855000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1725000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1556000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1737000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1520300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1441600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1643300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1796400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4208,82 +4347,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7653000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6294000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6893000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7563000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7128000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7210000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8352000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9174000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9753000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9796000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9849000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9874000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8973000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9400000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8625000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9385000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9726000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8618000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9206000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9200700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8536500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9279100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8309200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4356,8 +4501,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4430,8 +4578,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4504,8 +4655,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4578,82 +4732,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>160832000</v>
+      </c>
+      <c r="E66" s="3">
         <v>158404000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154767000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154399000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154661000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112168000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110045000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>107199000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106111000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102128000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97207000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>96826000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>96579000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96771000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>97679000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>94718000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>93886000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>92938000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>93371000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>91289300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90752600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89608400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89406000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4680,8 +4840,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4754,8 +4915,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4828,8 +4992,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4840,25 +5007,25 @@
         <v>2167000</v>
       </c>
       <c r="F70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="G70" s="3">
         <v>2267000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2851000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2191000</v>
       </c>
       <c r="J70" s="3">
         <v>2191000</v>
       </c>
       <c r="K70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="L70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1203000</v>
       </c>
       <c r="M70" s="3">
         <v>1203000</v>
@@ -4885,16 +5052,16 @@
         <v>1203000</v>
       </c>
       <c r="U70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="V70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="V70" s="3">
-        <v>1071300</v>
       </c>
       <c r="W70" s="3">
         <v>1071300</v>
       </c>
       <c r="X70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="Y70" s="3">
         <v>1071200</v>
@@ -4902,8 +5069,11 @@
       <c r="Z70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4976,82 +5146,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2408000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2202000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2051000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1939000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2223000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1878000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1752000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1633000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1657000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2088000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1946000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1750000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1361000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1196000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>990000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>780000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>588000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>201200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>33600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-126200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-226800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5124,8 +5300,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5198,8 +5377,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5272,82 +5454,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15783000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16285000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17130000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17212000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17660000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10924000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10802000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10726000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10617000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10566000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10592000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10706000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10465000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10229000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9899000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9731000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10269000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10105000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9743000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9627600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9582900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9365900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9236900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5420,161 +5608,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E81" s="3">
         <v>432000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>377000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>333000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>501000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>281000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>275000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>131000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>298000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>354000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>346000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>339000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>315000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>360000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>334000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>314000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>412300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>255700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>252900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>189200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>220100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5601,82 +5798,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E83" s="3">
         <v>112000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>92000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>203000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>109000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>119000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>131000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>143000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>122000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>123000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>105000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>105900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>96200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>-400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>211200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>80300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5749,8 +5950,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +6027,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5897,8 +6104,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5971,8 +6181,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6045,82 +6258,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E89" s="3">
         <v>849000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>497000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>577000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1099000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-111000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>64000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>549000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>212000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>498000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>676000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>46000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>355000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>497000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>582000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>542000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>308000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>294000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>847700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>547600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>163000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>395800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>529500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6147,82 +6366,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-90000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-77000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-49400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-57100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-55500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6295,8 +6518,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6369,82 +6595,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3850000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4362000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-376000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-184000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-515000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-519000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-682000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-776000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-843100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-737100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-585400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6471,82 +6703,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-225000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-219000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-223000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-155000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-153000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-154000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-153000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-155000</v>
       </c>
       <c r="M96" s="3">
         <v>-155000</v>
       </c>
       <c r="N96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="O96" s="3">
         <v>-147000</v>
       </c>
       <c r="P96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-148000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-122000</v>
       </c>
       <c r="S96" s="3">
         <v>-122000</v>
       </c>
       <c r="T96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-87400</v>
       </c>
       <c r="V96" s="3">
         <v>-87400</v>
       </c>
       <c r="W96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-87200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-76600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6619,8 +6855,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,8 +6932,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6767,82 +7009,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2259000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3508000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>31000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-890000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-795000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2481000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2743000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1216000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4361000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4421000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>176000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2477000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-106000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>687000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>31000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1642400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>252500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>886700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>265400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-221300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6915,78 +7163,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-616000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-998000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4666000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1994000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>320000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4526000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>597000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-466000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>262000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1373000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-83000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>313000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-451000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>326000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-321700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>206700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-277200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,183 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1331000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1195000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1182000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1205000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>935000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>869000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>878000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>892000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>902000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>975000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1011000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1052000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1070000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1056000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1007000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>972000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>914000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>893200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>873000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>846400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>820400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>814900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -911,8 +917,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +997,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,8 +1029,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,8 +1107,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +1187,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1248,8 +1267,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1257,19 +1279,19 @@
         <v>-24000</v>
       </c>
       <c r="E15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F15" s="3">
         <v>-28000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-31000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-32000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-10000</v>
       </c>
       <c r="J15" s="3">
         <v>-10000</v>
@@ -1281,10 +1303,10 @@
         <v>-10000</v>
       </c>
       <c r="M15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-12000</v>
       </c>
       <c r="O15" s="3">
         <v>-12000</v>
@@ -1293,7 +1315,7 @@
         <v>-12000</v>
       </c>
       <c r="Q15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="R15" s="3">
         <v>-13000</v>
@@ -1305,28 +1327,31 @@
         <v>-13000</v>
       </c>
       <c r="U15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="V15" s="3">
         <v>-14000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-13400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-14000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-14400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-14100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1351,162 +1376,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E17" s="3">
         <v>137000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-14000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-17000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>308000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-163000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>169000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>252000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>310000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>335000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>315000</v>
       </c>
       <c r="Q17" s="3">
         <v>315000</v>
       </c>
       <c r="R17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="S17" s="3">
         <v>283000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>258000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>244000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>210000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>188900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>158100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>126900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>158000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>154800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1194000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1121000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1196000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1222000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>627000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1032000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>746000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>735000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>733000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>723000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>701000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>717000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>753000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>755000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>773000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>749000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>728000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>704000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>704300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>714900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>719500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>662400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>660100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1534,162 +1566,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-555000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-533000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-554000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-706000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-754000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-628000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-398000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-371000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-377000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-552000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-665000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-329000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-278000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-326000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-334000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-382000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-309000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-316000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-319000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-292500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-350300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-369100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-395000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-347200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E21" s="3">
         <v>756000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>679000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>582000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>493000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>202000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>705000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>484000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>438000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>240000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>177000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>450000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>543000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>552000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>534000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>562000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>535000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>490000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>517700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>460800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>350000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>478600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>393200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1765,162 +1804,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>743000</v>
+      </c>
+      <c r="E23" s="3">
         <v>661000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>567000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>490000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>468000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>634000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>375000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>358000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>181000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>58000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>372000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>439000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>427000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>421000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>391000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>440000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>412000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>385000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>411700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>364500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>350400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>267400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>312900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E24" s="3">
         <v>120000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>105000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>88000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>90000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>102000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>63000</v>
       </c>
       <c r="Q24" s="3">
         <v>63000</v>
       </c>
       <c r="R24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="S24" s="3">
         <v>60000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>62000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>103100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>89900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>78600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>59300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>74000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,162 +2044,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E26" s="3">
         <v>541000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>462000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>402000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>378000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>532000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>316000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>303000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>150000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>317000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>372000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>364000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>358000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>331000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>378000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>355000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>326000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>308600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>274600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>271700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>208100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>239000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E27" s="3">
         <v>511000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>432000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>377000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>333000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>501000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>281000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>275000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>131000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>298000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>354000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>346000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>339000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>312000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>360000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>334000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>314000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>289300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>255700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>252900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>189200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>220100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2227,8 +2284,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2274,24 +2334,24 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>3000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>123000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2304,8 +2364,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2381,8 +2444,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2458,162 +2524,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E32" s="3">
         <v>533000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>554000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>706000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>754000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>628000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>398000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>371000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>377000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>552000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>665000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>329000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>278000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>326000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>334000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>382000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>309000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>316000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>319000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>292500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>350300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>369100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>395000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>347200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E33" s="3">
         <v>511000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>432000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>377000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>333000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>501000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>281000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>275000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>131000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>298000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>354000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>346000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>339000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>315000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>360000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>334000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>314000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>412300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>255700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>252900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>189200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>220100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2689,167 +2764,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E35" s="3">
         <v>511000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>432000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>377000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>333000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>501000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>281000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>275000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>131000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>298000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>354000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>346000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>339000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>315000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>360000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>334000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>314000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>412300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>255700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>252900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>189200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>220100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2877,8 +2961,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2906,162 +2991,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1685000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1793000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1708000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1811000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1611000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1479000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1096000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1319000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1029000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1285000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1431000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1045000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1018000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>870000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>804000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1108000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1299000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1382000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1069000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1520000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1193700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1515500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1308800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1384800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5379000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4602000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5199000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6299000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10530000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14269000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8884000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6733000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6556000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6227000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3894000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2189000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2866000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2778000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2216000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3162000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1549000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1457000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1354000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>455000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>459400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>496000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>160800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>191600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3137,8 +3229,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3214,8 +3309,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3291,8 +3389,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3368,8 +3469,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3445,162 +3549,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1175000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1173000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1164000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1126000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1128000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>747000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>757000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>752000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>751000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>743000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>973000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>975000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>976000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>987000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>790000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>827000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>840000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>847000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>864000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>853300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>855300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>852600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>815500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6286000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6274000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6014000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5960000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5930000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5935000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2470000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2418000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2409000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2401000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2407000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2465000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2445000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2471000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2503000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2524000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2550000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2560000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2572000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2577000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2582400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2591400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2608600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2620900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3676,8 +3789,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3753,8 +3869,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3830,8 +3949,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3907,85 +4029,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>179402000</v>
+      </c>
+      <c r="E54" s="3">
         <v>178782000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176856000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>174064000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>173878000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>175172000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125768000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123038000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120116000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118425000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113897000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109002000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>108735000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108247000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108203000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108781000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105652000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105358000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104246000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104185000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>101988100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>101406800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>100045500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>99714100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4013,8 +4141,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4042,8 +4171,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4119,8 +4249,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4196,8 +4329,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4225,56 +4361,59 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>1304000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1884000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1753000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2074000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1983000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1859000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1855000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1725000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1556000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1737000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1520300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1441600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1643300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1796400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4350,85 +4489,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7456000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7653000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6294000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6893000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7563000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7128000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7210000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8352000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9174000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9753000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9796000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9849000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9874000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8973000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9400000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8625000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9385000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9726000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8618000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9206000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9200700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8536500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9279100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8309200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4504,8 +4649,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4581,8 +4729,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4658,8 +4809,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4735,85 +4889,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>162266000</v>
+      </c>
+      <c r="E66" s="3">
         <v>160832000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158404000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154767000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154399000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154661000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112168000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110045000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>107199000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>106111000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102128000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97207000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>96826000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96579000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>96771000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>97679000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>94718000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>93886000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>92938000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>93371000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>91289300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90752600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89608400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89406000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4841,8 +5001,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4918,8 +5079,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4995,8 +5159,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5010,25 +5177,25 @@
         <v>2167000</v>
       </c>
       <c r="G70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="H70" s="3">
         <v>2267000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2851000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2191000</v>
       </c>
       <c r="K70" s="3">
         <v>2191000</v>
       </c>
       <c r="L70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="M70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1203000</v>
       </c>
       <c r="N70" s="3">
         <v>1203000</v>
@@ -5055,16 +5222,16 @@
         <v>1203000</v>
       </c>
       <c r="V70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="W70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="W70" s="3">
-        <v>1071300</v>
       </c>
       <c r="X70" s="3">
         <v>1071300</v>
       </c>
       <c r="Y70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="Z70" s="3">
         <v>1071200</v>
@@ -5072,8 +5239,11 @@
       <c r="AA70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5149,85 +5319,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3029000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2691000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2408000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2202000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2051000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1939000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2223000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1878000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1752000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1633000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1657000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2088000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1946000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1750000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1551000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1361000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1196000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>990000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>780000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>588000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>201200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>33600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-126200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-226800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5303,8 +5479,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5380,8 +5559,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5457,85 +5639,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14969000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15783000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16285000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17130000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17212000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17660000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10924000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10802000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10726000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10617000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10566000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10592000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10706000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10465000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10229000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9899000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9731000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10269000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10105000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9743000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9627600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9582900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9365900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9236900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5611,167 +5799,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E81" s="3">
         <v>511000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>432000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>377000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>333000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>501000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>281000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>275000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>131000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>298000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>354000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>346000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>339000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>315000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>360000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>334000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>314000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>412300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>255700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>252900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>189200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>220100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5799,85 +5996,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E83" s="3">
         <v>95000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>112000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>92000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>203000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>119000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>131000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>143000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>122000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>123000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>105000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>105900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>96200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>-400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>211200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>80300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5953,8 +6154,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6030,8 +6234,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6107,8 +6314,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6184,8 +6394,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6261,85 +6474,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E89" s="3">
         <v>975000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>849000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>497000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>577000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1099000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-111000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>64000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>549000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>212000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>498000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>676000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>46000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>355000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>497000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>582000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>542000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>308000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>294000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>847700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>547600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>163000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>395800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>529500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6367,85 +6586,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-90000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-49400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-57100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-55500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6521,8 +6744,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6598,85 +6824,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1141000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3850000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4362000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-376000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-184000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-515000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-519000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-682000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-776000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-843100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-737100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-585400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6704,8 +6936,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6713,76 +6946,79 @@
         <v>-224000</v>
       </c>
       <c r="E96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-225000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-219000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-223000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-155000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-153000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-154000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-153000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-155000</v>
       </c>
       <c r="N96" s="3">
         <v>-155000</v>
       </c>
       <c r="O96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="P96" s="3">
         <v>-147000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-148000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-122000</v>
       </c>
       <c r="T96" s="3">
         <v>-122000</v>
       </c>
       <c r="U96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-87400</v>
       </c>
       <c r="W96" s="3">
         <v>-87400</v>
       </c>
       <c r="X96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-87200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6858,8 +7094,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6935,8 +7174,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7012,85 +7254,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2259000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3508000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>31000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-890000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-795000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2481000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2743000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1216000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4361000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4421000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>176000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2477000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-106000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>687000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>31000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1642400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>252500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>886700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>265400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-221300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7166,81 +7414,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-616000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-998000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4666000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1994000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>320000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4526000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>597000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-466000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>262000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1373000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-83000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>313000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-451000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>326000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-321700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>206700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-76000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-277200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,189 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1589000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1331000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1195000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1182000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1205000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>935000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>869000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>878000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>892000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>902000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>975000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1011000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1052000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1068000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1070000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1056000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1007000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>972000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>914000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>893200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>873000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>846400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>820400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>814900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -920,8 +926,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1009,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1042,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1206,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,31 +1289,34 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24000</v>
+        <v>-22000</v>
       </c>
       <c r="E15" s="3">
         <v>-24000</v>
       </c>
       <c r="F15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="G15" s="3">
         <v>-28000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-31000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-32000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-10000</v>
       </c>
       <c r="K15" s="3">
         <v>-10000</v>
@@ -1306,10 +1328,10 @@
         <v>-10000</v>
       </c>
       <c r="N15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-12000</v>
       </c>
       <c r="P15" s="3">
         <v>-12000</v>
@@ -1318,7 +1340,7 @@
         <v>-12000</v>
       </c>
       <c r="R15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="S15" s="3">
         <v>-13000</v>
@@ -1330,28 +1352,31 @@
         <v>-13000</v>
       </c>
       <c r="V15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="W15" s="3">
         <v>-14000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-13400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-14400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-14100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1377,168 +1402,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E17" s="3">
         <v>291000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>137000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>74000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-14000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-17000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>308000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-163000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>169000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>252000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>310000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>335000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>315000</v>
       </c>
       <c r="R17" s="3">
         <v>315000</v>
       </c>
       <c r="S17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="T17" s="3">
         <v>283000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>258000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>244000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>210000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>188900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>158100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>126900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>158000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>154800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1298000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1194000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1121000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1196000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1222000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>627000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1032000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>746000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>735000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>733000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>723000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>701000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>717000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>753000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>755000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>773000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>749000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>728000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>704000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>704300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>714900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>719500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>662400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>660100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1567,168 +1599,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-578000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-555000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-533000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-554000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-706000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-754000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-628000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-398000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-371000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-377000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-552000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-665000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-329000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-278000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-326000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-334000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-382000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-309000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-316000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-319000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-292500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-350300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-369100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-395000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-347200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E21" s="3">
         <v>891000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>756000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>679000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>582000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>493000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>202000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>705000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>484000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>438000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>240000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>177000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>450000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>543000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>552000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>534000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>562000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>535000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>490000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>517700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>460800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>350000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>478600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>393200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1807,168 +1846,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E23" s="3">
         <v>743000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>661000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>567000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>490000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>468000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>634000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>375000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>358000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>181000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>58000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>372000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>439000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>427000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>421000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>391000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>440000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>412000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>385000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>411700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>364500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>350400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>267400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>312900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E24" s="3">
         <v>146000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>120000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>105000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>88000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>90000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>102000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>63000</v>
       </c>
       <c r="R24" s="3">
         <v>63000</v>
       </c>
       <c r="S24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="T24" s="3">
         <v>60000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>62000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>103100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>89900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>78600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>59300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>74000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2047,168 +2095,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E26" s="3">
         <v>597000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>541000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>462000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>402000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>378000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>532000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>316000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>303000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>150000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>317000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>372000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>364000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>358000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>331000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>378000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>355000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>326000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>308600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>274600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>271700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>208100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>239000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E27" s="3">
         <v>565000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>511000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>432000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>377000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>333000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>501000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>281000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>275000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>131000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>298000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>354000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>346000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>339000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>312000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>360000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>334000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>314000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>289300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>255700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>252900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>189200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>220100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2287,8 +2344,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2379,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2337,24 +2397,24 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>3000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>123000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2367,8 +2427,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2447,8 +2510,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2527,168 +2593,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E32" s="3">
         <v>555000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>533000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>554000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>706000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>754000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>628000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>398000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>371000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>377000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>552000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>665000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>329000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>278000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>326000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>334000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>382000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>309000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>316000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>319000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>292500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>350300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>369100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>395000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>347200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E33" s="3">
         <v>565000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>511000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>432000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>377000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>333000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>501000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>281000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>275000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>131000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>298000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>354000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>346000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>339000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>315000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>360000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>334000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>314000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>412300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>255700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>252900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>189200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>220100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2767,173 +2842,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E35" s="3">
         <v>565000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>511000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>432000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>377000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>333000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>501000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>281000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>275000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>131000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>298000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>354000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>346000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>339000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>315000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>360000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>334000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>314000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>412300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>255700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>252900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>189200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>220100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2962,8 +3046,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2992,168 +3077,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1796000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1685000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1793000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1708000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1811000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1611000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1479000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1096000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1319000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1029000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1285000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1431000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1045000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1018000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>870000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>804000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1108000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1299000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1382000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1069000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1520000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1193700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1515500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1308800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1384800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7713000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5379000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4602000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5199000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6299000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10530000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14269000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8884000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6733000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6556000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6227000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3894000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2189000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2866000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2778000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2216000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3162000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1549000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1457000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1354000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>455000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>459400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>496000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>160800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>191600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3232,8 +3324,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3312,8 +3407,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3392,8 +3490,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3472,8 +3573,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3552,168 +3656,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1171000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1175000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1173000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1164000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1126000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1128000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>747000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>757000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>752000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>751000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>743000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>973000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>975000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>976000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>987000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>790000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>827000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>840000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>847000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>864000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>853300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>855300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>852600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>815500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6283000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6286000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6274000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6014000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5960000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5930000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5935000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2470000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2418000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2409000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2401000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2407000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2465000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2445000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2471000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2503000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2524000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2550000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2560000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2572000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2577000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2582400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2591400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2608600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2620900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3792,8 +3905,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3872,8 +3988,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3952,8 +4071,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4032,88 +4154,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182906000</v>
+      </c>
+      <c r="E54" s="3">
         <v>179402000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>178782000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176856000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174064000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>173878000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>175172000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125768000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123038000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>120116000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118425000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113897000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109002000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>108735000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108247000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108203000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108781000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105652000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105358000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104246000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>104185000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>101988100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>101406800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>100045500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>99714100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4142,8 +4270,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4172,8 +4301,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4252,8 +4382,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4332,8 +4465,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4364,56 +4500,59 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1304000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1884000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1753000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2074000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1983000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1859000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1855000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1725000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1556000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1737000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1520300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1441600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1643300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1796400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4492,88 +4631,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9475000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7456000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7653000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6294000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6893000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7563000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7128000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7210000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8352000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9174000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9753000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9796000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9849000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9874000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8973000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9400000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8625000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9385000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9726000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8618000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9206000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9200700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8536500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9279100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8309200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4652,8 +4797,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4732,8 +4880,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4812,8 +4963,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4892,88 +5046,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>165175000</v>
+      </c>
+      <c r="E66" s="3">
         <v>162266000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>160832000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158404000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154767000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154399000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154661000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112168000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110045000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>107199000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106111000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>102128000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>97207000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96826000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>96579000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>96771000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>97679000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>94718000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>93886000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>92938000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>93371000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>91289300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>90752600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89608400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89406000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5002,8 +5162,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5082,8 +5243,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5162,8 +5326,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5180,25 +5347,25 @@
         <v>2167000</v>
       </c>
       <c r="H70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="I70" s="3">
         <v>2267000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2851000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>2191000</v>
       </c>
       <c r="L70" s="3">
         <v>2191000</v>
       </c>
       <c r="M70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="N70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1203000</v>
       </c>
       <c r="O70" s="3">
         <v>1203000</v>
@@ -5225,16 +5392,16 @@
         <v>1203000</v>
       </c>
       <c r="W70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="X70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="X70" s="3">
-        <v>1071300</v>
       </c>
       <c r="Y70" s="3">
         <v>1071300</v>
       </c>
       <c r="Z70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="AA70" s="3">
         <v>1071200</v>
@@ -5242,8 +5409,11 @@
       <c r="AB70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5322,88 +5492,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3419000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3029000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2691000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2408000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2202000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2051000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1939000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2223000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1878000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1752000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1633000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1657000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2088000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1946000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1750000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1551000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1361000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1196000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>990000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>780000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>588000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>201200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>33600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-126200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-226800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5482,8 +5658,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5562,8 +5741,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5642,88 +5824,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15564000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14969000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15783000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16285000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17130000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17212000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17660000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10924000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10802000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10726000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10617000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10566000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10592000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10706000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10465000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10229000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9899000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9731000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10269000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10105000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9743000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9627600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9582900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9365900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9236900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5802,173 +5990,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E81" s="3">
         <v>565000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>511000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>432000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>377000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>333000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>501000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>281000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>275000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>131000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>298000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>354000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>346000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>339000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>315000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>360000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>334000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>314000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>412300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>255700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>252900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>189200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>220100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5997,88 +6194,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E83" s="3">
         <v>148000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>95000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>112000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>92000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>203000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>119000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>73000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>131000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>143000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>122000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>123000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>105000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>105900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>96200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>-400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>211200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>80300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6157,8 +6358,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6237,8 +6441,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6317,8 +6524,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6397,8 +6607,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6477,88 +6690,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E89" s="3">
         <v>846000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>975000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>849000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>497000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>577000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1099000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-111000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>64000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>549000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>212000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>498000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>676000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>46000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>355000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>497000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>582000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>542000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>308000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>294000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>847700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>547600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>163000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>395800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>529500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6587,88 +6806,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-90000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-49400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-57100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-55500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6747,8 +6970,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6827,88 +7053,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1263000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1141000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3850000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4362000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-376000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-184000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-515000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-519000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-682000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-776000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-843100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-737100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-585400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6937,8 +7169,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6949,76 +7182,79 @@
         <v>-224000</v>
       </c>
       <c r="F96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-225000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-219000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-223000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-155000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-153000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-154000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-153000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-155000</v>
       </c>
       <c r="O96" s="3">
         <v>-155000</v>
       </c>
       <c r="P96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="Q96" s="3">
         <v>-147000</v>
       </c>
       <c r="R96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-148000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-122000</v>
       </c>
       <c r="U96" s="3">
         <v>-122000</v>
       </c>
       <c r="V96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-87400</v>
       </c>
       <c r="X96" s="3">
         <v>-87400</v>
       </c>
       <c r="Y96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-87200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-87000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7097,8 +7333,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7177,8 +7416,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7257,88 +7499,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2234000</v>
+      </c>
+      <c r="E100" s="3">
         <v>763000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2259000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3508000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>31000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-890000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-795000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2481000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2743000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1216000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4361000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4421000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>176000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2477000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-106000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>687000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>31000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1642400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>252500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>886700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>265400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-221300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7417,84 +7665,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2328000</v>
+      </c>
+      <c r="E102" s="3">
         <v>468000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-616000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-998000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4666000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1994000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>320000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4526000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>597000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-466000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>262000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1373000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-83000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>313000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-451000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>326000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-321700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>206700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-277200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,195 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2028000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1854000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1589000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1331000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1195000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1182000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1205000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>935000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>869000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>878000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>892000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>902000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>975000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1011000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1052000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1068000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1070000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1056000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1007000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>972000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>914000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>893200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>873000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>846400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>820400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>814900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -929,8 +935,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,8 +1021,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1055,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,8 +1225,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,34 +1311,37 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-22000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-24000</v>
       </c>
       <c r="F15" s="3">
         <v>-24000</v>
       </c>
       <c r="G15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="H15" s="3">
         <v>-28000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-31000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-32000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-10000</v>
       </c>
       <c r="L15" s="3">
         <v>-10000</v>
@@ -1331,10 +1353,10 @@
         <v>-10000</v>
       </c>
       <c r="O15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-12000</v>
       </c>
       <c r="Q15" s="3">
         <v>-12000</v>
@@ -1343,7 +1365,7 @@
         <v>-12000</v>
       </c>
       <c r="S15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="T15" s="3">
         <v>-13000</v>
@@ -1355,28 +1377,31 @@
         <v>-13000</v>
       </c>
       <c r="W15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="X15" s="3">
         <v>-14000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-14200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-14400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-14100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1403,174 +1428,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E17" s="3">
         <v>483000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>291000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>137000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>74000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-14000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-17000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>308000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-163000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>157000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>169000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>252000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>310000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>335000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>315000</v>
       </c>
       <c r="S17" s="3">
         <v>315000</v>
       </c>
       <c r="T17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="U17" s="3">
         <v>283000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>258000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>244000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>210000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>188900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>158100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>126900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>158000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>154800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1371000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1298000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1194000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1121000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1196000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1222000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>627000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1032000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>746000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>735000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>733000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>723000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>701000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>717000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>753000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>755000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>773000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>749000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>728000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>704000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>704300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>714900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>719500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>662400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>660100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1600,174 +1632,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-574000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-578000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-555000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-533000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-554000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-706000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-754000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-628000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-398000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-371000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-377000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-552000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-665000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-329000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-278000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-326000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-334000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-382000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-309000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-316000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-319000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-292500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-350300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-369100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-395000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-347200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E21" s="3">
         <v>922000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>891000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>756000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>679000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>582000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>493000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>202000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>705000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>484000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>438000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>240000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>177000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>450000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>543000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>552000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>534000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>562000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>535000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>490000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>517700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>460800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>350000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>478600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>393200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1849,91 +1888,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E23" s="3">
         <v>793000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>743000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>661000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>567000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>490000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>468000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>634000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>375000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>358000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>181000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>372000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>439000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>427000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>421000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>391000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>440000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>412000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>385000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>411700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>364500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>350400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>267400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>312900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1941,82 +1986,85 @@
         <v>144000</v>
       </c>
       <c r="E24" s="3">
+        <v>144000</v>
+      </c>
+      <c r="F24" s="3">
         <v>146000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>120000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>105000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>88000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>90000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>63000</v>
       </c>
       <c r="S24" s="3">
         <v>63000</v>
       </c>
       <c r="T24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="U24" s="3">
         <v>60000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>62000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>57000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>59000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>103100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>89900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>78600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>59300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>74000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,174 +2146,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E26" s="3">
         <v>649000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>597000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>541000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>462000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>402000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>378000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>532000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>316000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>303000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>150000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>317000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>372000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>364000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>358000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>331000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>378000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>355000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>326000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>308600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>274600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>271700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>208100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>239000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E27" s="3">
         <v>617000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>565000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>511000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>432000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>377000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>333000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-58000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>501000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>281000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>275000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>131000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>298000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>354000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>346000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>339000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>312000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>360000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>334000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>314000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>289300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>255700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>252900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>189200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>220100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2347,8 +2404,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2442,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2400,24 +2460,24 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>3000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>123000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2430,8 +2490,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2513,8 +2576,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2596,174 +2662,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E32" s="3">
         <v>578000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>555000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>533000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>554000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>706000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>754000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>628000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>398000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>371000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>377000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>552000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>665000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>329000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>278000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>326000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>334000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>382000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>309000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>316000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>319000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>292500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>350300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>369100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>395000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>347200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E33" s="3">
         <v>617000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>565000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>511000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>432000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>377000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>333000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-58000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>501000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>281000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>275000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>131000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>298000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>354000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>346000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>339000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>315000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>360000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>334000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>314000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>412300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>255700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>252900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>189200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>220100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2845,179 +2920,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E35" s="3">
         <v>617000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>565000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>511000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>432000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>377000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>333000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-58000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>501000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>281000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>275000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>131000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>298000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>354000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>346000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>339000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>315000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>360000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>334000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>314000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>412300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>255700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>252900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>189200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>220100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3047,8 +3131,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3078,174 +3163,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1568000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1796000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1685000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1793000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1708000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1811000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1611000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1479000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1096000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1319000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1029000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1285000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1431000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1045000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1018000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>870000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>804000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1108000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1299000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1382000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1069000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1520000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1193700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1515500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1308800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1384800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11734000</v>
+      </c>
+      <c r="E42" s="3">
         <v>7713000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5379000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4602000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5199000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6299000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10530000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14269000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8884000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6733000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6556000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6227000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3894000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2189000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2866000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2778000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2216000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3162000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1549000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1457000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1354000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>455000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>459400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>496000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>160800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>191600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3327,8 +3419,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3410,8 +3505,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3493,8 +3591,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3576,8 +3677,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3659,174 +3763,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1156000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1171000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1175000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1173000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1164000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1126000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1128000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>747000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>757000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>752000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>751000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>743000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>973000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>975000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>976000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>987000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>790000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>827000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>840000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>847000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>864000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>853300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>855300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>852600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>815500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6246000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6283000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6286000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6274000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6014000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5960000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5930000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5935000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2470000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2418000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2409000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2401000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2407000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2465000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2445000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2471000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2503000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2524000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2550000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2560000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2572000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2577000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2582400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2591400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2608600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2620900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3908,8 +4021,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3991,8 +4107,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4074,8 +4193,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4157,91 +4279,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>189070000</v>
+      </c>
+      <c r="E54" s="3">
         <v>182906000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>179402000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>178782000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>176856000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>174064000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>173878000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>175172000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125768000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123038000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>120116000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118425000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113897000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109002000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>108735000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108247000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108203000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108781000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105652000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105358000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>104246000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>104185000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>101988100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>101406800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>100045500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>99714100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4271,8 +4399,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4302,8 +4431,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4385,8 +4515,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4468,8 +4601,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4503,56 +4639,59 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>1304000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1884000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1753000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2074000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1983000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1859000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1855000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1725000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1556000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1737000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1520300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1441600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1643300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1796400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4634,91 +4773,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9363000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9475000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7456000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7653000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6294000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6893000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7563000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7128000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7210000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8352000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9174000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9753000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9796000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9849000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9874000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8973000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9400000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8625000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9385000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9726000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8618000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9206000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9200700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8536500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9279100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8309200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4800,8 +4945,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4883,8 +5031,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4966,8 +5117,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5049,91 +5203,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170312000</v>
+      </c>
+      <c r="E66" s="3">
         <v>165175000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>162266000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>160832000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158404000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154767000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154399000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154661000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112168000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110045000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>107199000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>106111000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>102128000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>97207000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>96826000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>96579000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>96771000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>97679000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>94718000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>93886000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>92938000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>93371000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>91289300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>90752600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89608400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89406000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5163,8 +5323,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5246,8 +5407,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5329,13 +5493,16 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2167000</v>
+        <v>2484000</v>
       </c>
       <c r="E70" s="3">
         <v>2167000</v>
@@ -5350,25 +5517,25 @@
         <v>2167000</v>
       </c>
       <c r="I70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="J70" s="3">
         <v>2267000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2851000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>2191000</v>
       </c>
       <c r="M70" s="3">
         <v>2191000</v>
       </c>
       <c r="N70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="O70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1203000</v>
       </c>
       <c r="P70" s="3">
         <v>1203000</v>
@@ -5395,16 +5562,16 @@
         <v>1203000</v>
       </c>
       <c r="X70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="Y70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>1071300</v>
       </c>
       <c r="Z70" s="3">
         <v>1071300</v>
       </c>
       <c r="AA70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="AB70" s="3">
         <v>1071200</v>
@@ -5412,8 +5579,11 @@
       <c r="AC70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5495,91 +5665,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3764000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3419000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3029000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2691000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2408000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2202000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2051000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1939000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2223000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1878000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1752000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1633000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1657000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2088000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1946000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1750000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1551000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1361000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1196000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>990000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>780000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>588000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>201200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>33600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-126200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-226800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5661,8 +5837,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5744,8 +5923,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5827,91 +6009,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16274000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15564000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14969000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15783000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16285000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17130000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17212000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17660000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10924000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10802000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10726000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10617000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10566000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10592000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10706000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10465000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10229000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9899000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9731000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10269000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10105000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9743000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9627600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9582900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9365900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9236900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5993,179 +6181,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E81" s="3">
         <v>617000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>565000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>511000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>432000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>377000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>333000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-58000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>501000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>281000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>275000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>131000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>298000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>354000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>346000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>339000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>315000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>360000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>334000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>314000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>412300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>255700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>252900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>189200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>220100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6195,91 +6392,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E83" s="3">
         <v>129000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>95000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>112000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>92000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>203000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>119000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>104000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>131000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>143000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>122000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>123000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>105000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>105900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>96200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>-400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>211200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>80300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6361,8 +6562,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6444,8 +6648,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6527,8 +6734,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6610,8 +6820,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6693,91 +6906,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1357000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>846000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>975000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>849000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>497000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>577000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1099000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-111000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>64000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>549000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>212000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>498000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>676000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>46000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>355000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>497000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>582000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>542000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>308000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>294000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>847700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>547600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>163000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>395800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>529500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6807,91 +7026,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-90000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-49400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-57100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-55500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-56800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6973,8 +7196,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7056,91 +7282,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2299000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1263000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1141000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3850000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4362000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-376000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-184000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-515000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-519000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-682000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-776000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-843100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-737100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-585400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7170,13 +7402,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-224000</v>
+        <v>-225000</v>
       </c>
       <c r="E96" s="3">
         <v>-224000</v>
@@ -7185,76 +7418,79 @@
         <v>-224000</v>
       </c>
       <c r="G96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-225000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-219000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-223000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-155000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-153000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-154000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-153000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-155000</v>
       </c>
       <c r="P96" s="3">
         <v>-155000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="R96" s="3">
         <v>-147000</v>
       </c>
       <c r="S96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-148000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-122000</v>
       </c>
       <c r="V96" s="3">
         <v>-122000</v>
       </c>
       <c r="W96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-87400</v>
       </c>
       <c r="Y96" s="3">
         <v>-87400</v>
       </c>
       <c r="Z96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-87200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-87000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7336,8 +7572,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7419,8 +7658,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7502,91 +7744,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5834000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2234000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>763000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2259000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3508000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>31000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-890000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-795000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2481000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2743000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1216000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4361000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4421000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>176000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2477000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-106000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>687000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>31000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1642400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>252500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>886700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>265400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-221300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7668,87 +7916,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3665000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2328000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>468000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-616000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-998000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4666000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1994000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>320000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4526000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>597000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-466000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>262000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1373000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-83000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>313000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-451000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>326000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-321700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>206700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-277200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,201 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2028000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1854000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1589000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1331000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1195000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1182000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1205000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>935000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>869000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>878000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>892000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>902000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>975000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1011000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1052000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1068000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1070000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1056000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1007000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>972000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>914000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>893200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>873000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>846400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>820400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>814900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -938,8 +944,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1024,8 +1033,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,8 +1068,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1155,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,8 +1244,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1333,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,28 +1345,28 @@
         <v>-21000</v>
       </c>
       <c r="E15" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F15" s="3">
         <v>-22000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-24000</v>
       </c>
       <c r="G15" s="3">
         <v>-24000</v>
       </c>
       <c r="H15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="I15" s="3">
         <v>-28000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-31000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-32000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-10000</v>
       </c>
       <c r="M15" s="3">
         <v>-10000</v>
@@ -1356,10 +1378,10 @@
         <v>-10000</v>
       </c>
       <c r="P15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-12000</v>
       </c>
       <c r="R15" s="3">
         <v>-12000</v>
@@ -1368,7 +1390,7 @@
         <v>-12000</v>
       </c>
       <c r="T15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="U15" s="3">
         <v>-13000</v>
@@ -1380,28 +1402,31 @@
         <v>-13000</v>
       </c>
       <c r="X15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-14200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-14400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-14100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1429,180 +1454,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E17" s="3">
         <v>704000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>483000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>291000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>137000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-14000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-17000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>308000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-163000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>157000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>169000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>252000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>310000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>335000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>315000</v>
       </c>
       <c r="T17" s="3">
         <v>315000</v>
       </c>
       <c r="U17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="V17" s="3">
         <v>283000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>258000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>244000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>210000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>188900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>158100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>126900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>158000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>154800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1324000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1371000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1298000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1194000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1121000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1196000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1222000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>627000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1032000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>746000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>735000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>733000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>723000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>701000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>717000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>753000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>755000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>773000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>749000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>728000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>704000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>704300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>714900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>719500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>662400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>660100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1633,180 +1665,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-555000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-574000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-578000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-555000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-533000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-554000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-706000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-754000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-628000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-398000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-371000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-377000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-552000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-665000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-329000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-278000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-326000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-334000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-382000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-309000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-316000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-319000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-292500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-350300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-369100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-395000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-347200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E21" s="3">
         <v>892000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>922000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>891000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>756000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>679000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>582000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>493000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>202000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>705000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>484000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>438000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>240000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>450000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>543000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>552000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>534000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>562000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>535000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>490000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>517700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>460800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>350000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>478600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>393200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1891,180 +1930,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E23" s="3">
         <v>750000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>793000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>743000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>661000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>567000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>490000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>468000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>634000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>375000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>358000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>181000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>372000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>439000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>427000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>421000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>391000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>440000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>412000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>385000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>411700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>364500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>350400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>267400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>312900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>144000</v>
+        <v>134000</v>
       </c>
       <c r="E24" s="3">
         <v>144000</v>
       </c>
       <c r="F24" s="3">
+        <v>144000</v>
+      </c>
+      <c r="G24" s="3">
         <v>146000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>120000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>105000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>88000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>90000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>102000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>63000</v>
       </c>
       <c r="T24" s="3">
         <v>63000</v>
       </c>
       <c r="U24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="V24" s="3">
         <v>60000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>62000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>57000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>103100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>89900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>78600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>59300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>74000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2149,180 +2197,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E26" s="3">
         <v>606000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>649000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>597000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>541000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>462000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>402000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>378000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>532000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>316000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>303000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>150000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>317000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>372000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>364000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>358000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>331000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>378000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>355000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>326000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>308600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>274600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>271700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>208100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>239000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E27" s="3">
         <v>573000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>617000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>565000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>511000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>432000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>377000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>333000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-58000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>501000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>281000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>275000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>298000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>354000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>346000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>339000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>312000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>360000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>334000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>314000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>289300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>255700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>252900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>189200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>220100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2407,8 +2464,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2445,8 +2505,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2463,24 +2523,24 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>3000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>123000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2493,8 +2553,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2579,8 +2642,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2665,180 +2731,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E32" s="3">
         <v>574000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>578000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>555000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>533000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>554000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>706000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>754000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>628000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>398000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>371000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>377000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>552000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>665000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>329000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>278000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>326000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>334000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>382000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>309000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>316000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>319000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>292500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>350300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>369100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>395000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>347200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E33" s="3">
         <v>573000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>617000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>565000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>511000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>432000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>377000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>333000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-58000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>501000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>281000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>275000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>131000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>298000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>354000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>346000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>339000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>315000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>360000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>334000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>314000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>412300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>255700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>252900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>189200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>220100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2923,185 +2998,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E35" s="3">
         <v>573000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>617000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>565000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>511000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>432000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>377000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>333000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-58000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>501000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>281000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>275000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>131000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>298000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>354000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>346000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>339000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>315000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>360000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>334000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>314000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>412300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>255700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>252900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>189200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>220100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3132,8 +3216,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3164,180 +3249,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1568000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1796000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1685000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1793000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1708000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1811000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1611000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1479000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1096000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1319000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1029000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1285000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1431000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1045000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1018000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>870000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>804000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1108000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1299000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1382000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1069000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1520000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1193700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1515500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1308800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1384800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12656000</v>
+      </c>
+      <c r="E42" s="3">
         <v>11734000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7713000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5379000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4602000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5199000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6299000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10530000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14269000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8884000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6733000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6556000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6227000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3894000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2189000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2866000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2778000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2216000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3162000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1549000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1457000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1354000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>455000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>459400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>496000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>160800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>191600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3422,8 +3514,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3508,8 +3603,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3594,8 +3692,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3680,8 +3781,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3766,180 +3870,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1136000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1156000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1171000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1175000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1173000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1164000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1126000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1128000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>747000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>757000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>752000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>751000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>743000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>973000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>975000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>976000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>987000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>790000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>827000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>840000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>847000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>864000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>853300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>855300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>852600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>815500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6251000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6246000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6283000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6286000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6274000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6014000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5960000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5930000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5935000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2470000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2418000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2409000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2401000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2407000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2465000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2445000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2471000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2503000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2524000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2550000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2560000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2572000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2577000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2582400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2591400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2608600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2620900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4024,8 +4137,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4110,8 +4226,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4196,8 +4315,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4282,94 +4404,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>188505000</v>
+      </c>
+      <c r="E54" s="3">
         <v>189070000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>182906000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>179402000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>178782000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>176856000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>174064000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>173878000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175172000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125768000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123038000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>120116000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118425000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113897000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109002000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>108735000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108247000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108203000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>108781000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105652000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105358000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>104246000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>104185000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>101988100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>101406800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>100045500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>99714100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4400,8 +4528,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4432,8 +4561,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4518,8 +4648,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4604,8 +4737,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4642,56 +4778,59 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1884000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1753000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2074000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1983000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1859000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1855000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1725000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1556000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1737000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1520300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1441600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1643300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1796400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4776,94 +4915,100 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9003000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9363000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9475000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7456000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7653000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6294000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6893000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7563000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7128000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7210000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8352000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9174000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9753000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9796000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9849000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9874000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8973000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9400000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8625000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9385000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9726000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8618000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9206000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9200700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8536500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9279100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8309200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4948,8 +5093,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5034,8 +5182,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5120,8 +5271,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5206,94 +5360,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169717000</v>
+      </c>
+      <c r="E66" s="3">
         <v>170312000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>165175000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>162266000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>160832000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158404000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154767000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154399000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154661000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112168000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110045000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>107199000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>106111000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102128000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>97207000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>96826000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>96579000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>96771000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>97679000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>94718000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>93886000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>92938000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>93371000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>91289300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>90752600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89608400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>89406000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5324,8 +5484,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5410,8 +5571,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5496,8 +5660,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5505,7 +5672,7 @@
         <v>2484000</v>
       </c>
       <c r="E70" s="3">
-        <v>2167000</v>
+        <v>2484000</v>
       </c>
       <c r="F70" s="3">
         <v>2167000</v>
@@ -5520,25 +5687,25 @@
         <v>2167000</v>
       </c>
       <c r="J70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="K70" s="3">
         <v>2267000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2851000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>2191000</v>
       </c>
       <c r="N70" s="3">
         <v>2191000</v>
       </c>
       <c r="O70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="P70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>1203000</v>
       </c>
       <c r="Q70" s="3">
         <v>1203000</v>
@@ -5565,16 +5732,16 @@
         <v>1203000</v>
       </c>
       <c r="Y70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="Z70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>1071300</v>
       </c>
       <c r="AA70" s="3">
         <v>1071300</v>
       </c>
       <c r="AB70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="AC70" s="3">
         <v>1071200</v>
@@ -5582,8 +5749,11 @@
       <c r="AD70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5668,94 +5838,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4052000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3764000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3419000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3029000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2691000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2408000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2202000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2051000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1939000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2223000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1878000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1752000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1633000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1657000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2088000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1946000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1750000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1551000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1361000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1196000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>990000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>780000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>588000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>201200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>33600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-126200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-226800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5840,8 +6016,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5926,8 +6105,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6012,94 +6194,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16304000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16274000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15564000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14969000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15783000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16285000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17130000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17212000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17660000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10924000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10802000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10726000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10617000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10566000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10592000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10706000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10465000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10229000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9899000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9731000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10269000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10105000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9743000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9627600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9582900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9365900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9236900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6184,185 +6372,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E81" s="3">
         <v>573000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>617000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>565000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>511000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>432000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>377000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>333000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-58000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>501000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>281000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>275000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>131000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>298000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>354000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>346000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>339000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>315000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>360000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>334000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>314000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>412300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>255700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>252900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>189200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>220100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6393,94 +6590,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E83" s="3">
         <v>142000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>129000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>95000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>92000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>203000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>109000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>119000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>104000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>131000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>143000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>122000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>123000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>105000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>105900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>96200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>-400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>211200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>80300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6565,8 +6766,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6651,8 +6855,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6737,8 +6944,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6823,8 +7033,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6909,94 +7122,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E89" s="3">
         <v>130000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1357000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>846000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>975000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>849000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>497000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>577000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1099000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-111000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>64000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>549000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>212000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>498000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>676000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>46000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>355000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>497000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>582000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>542000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>308000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>294000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>847700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>547600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>163000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>395800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>529500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7027,94 +7246,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-90000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-49400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-57100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-55500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-56800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7199,8 +7422,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7285,94 +7511,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2299000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1263000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1141000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3850000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4362000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-376000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-47000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-184000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-515000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-519000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-682000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-776000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-843100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-737100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-585400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7403,16 +7635,17 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-225000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-224000</v>
       </c>
       <c r="F96" s="3">
         <v>-224000</v>
@@ -7421,76 +7654,79 @@
         <v>-224000</v>
       </c>
       <c r="H96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-225000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-219000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-223000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-155000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-153000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-154000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-153000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-155000</v>
       </c>
       <c r="Q96" s="3">
         <v>-155000</v>
       </c>
       <c r="R96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="S96" s="3">
         <v>-147000</v>
       </c>
       <c r="T96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-148000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-122000</v>
       </c>
       <c r="W96" s="3">
         <v>-122000</v>
       </c>
       <c r="X96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-87400</v>
       </c>
       <c r="Z96" s="3">
         <v>-87400</v>
       </c>
       <c r="AA96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-87200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-87000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7575,8 +7811,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7661,8 +7900,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7747,94 +7989,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1087000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5834000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2234000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>763000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2259000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3508000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>31000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-890000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-795000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2481000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2743000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1216000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4361000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4421000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>176000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-29000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2477000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-106000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>687000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>31000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1642400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>252500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>886700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>265400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-221300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7919,90 +8167,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3665000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2328000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>468000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-616000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-998000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4666000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1994000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>320000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4526000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>597000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-466000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>262000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1373000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-83000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>313000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-451000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>326000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-321700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>206700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-76000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-277200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>794800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HBAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>HBAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,207 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2313000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2225000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2028000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1854000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1589000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1331000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1195000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1182000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1205000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>935000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>869000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>878000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>892000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>902000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>975000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1011000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1052000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1068000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1070000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1056000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1007000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>972000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>914000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>893200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>873000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>846400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>820400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>814900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>694300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -947,8 +953,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,8 +1045,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1263,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1336,40 +1355,43 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-21000</v>
+        <v>-18000</v>
       </c>
       <c r="E15" s="3">
         <v>-21000</v>
       </c>
       <c r="F15" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G15" s="3">
         <v>-22000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-24000</v>
       </c>
       <c r="H15" s="3">
         <v>-24000</v>
       </c>
       <c r="I15" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="J15" s="3">
         <v>-28000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-31000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-32000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-16000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-10000</v>
       </c>
       <c r="N15" s="3">
         <v>-10000</v>
@@ -1381,10 +1403,10 @@
         <v>-10000</v>
       </c>
       <c r="Q15" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R15" s="3">
         <v>-11000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-12000</v>
       </c>
       <c r="S15" s="3">
         <v>-12000</v>
@@ -1393,7 +1415,7 @@
         <v>-12000</v>
       </c>
       <c r="U15" s="3">
-        <v>-13000</v>
+        <v>-12000</v>
       </c>
       <c r="V15" s="3">
         <v>-13000</v>
@@ -1405,28 +1427,31 @@
         <v>-13000</v>
       </c>
       <c r="Y15" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-13400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-14200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-14400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-14100</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1455,186 +1480,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1044000</v>
+      </c>
+      <c r="E17" s="3">
         <v>971000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>704000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>483000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>291000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>137000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>74000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-14000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-17000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>308000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-163000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>169000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>252000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>310000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>335000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>315000</v>
       </c>
       <c r="U17" s="3">
         <v>315000</v>
       </c>
       <c r="V17" s="3">
+        <v>315000</v>
+      </c>
+      <c r="W17" s="3">
         <v>283000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>258000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>244000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>210000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>188900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>158100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>126900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>158000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>154800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>132800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1254000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1324000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1371000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1298000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1194000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1121000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1196000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1222000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>627000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1032000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>746000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>735000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>733000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>723000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>701000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>717000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>753000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>755000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>773000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>749000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>728000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>704000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>704300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>714900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>719500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>662400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>660100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>561500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1666,186 +1698,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-581000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-555000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-574000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-578000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-555000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-533000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-554000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-706000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-754000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-628000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-398000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-371000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-377000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-552000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-665000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-329000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-278000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-326000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-334000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-382000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-309000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-316000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-319000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-292500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-350300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-369100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-395000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-347200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-409800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E21" s="3">
         <v>901000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>892000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>922000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>891000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>756000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>679000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>582000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>493000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>202000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>705000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>484000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>438000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>240000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>177000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>450000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>543000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>552000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>534000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>562000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>535000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>490000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>517700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>460800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>350000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>478600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>393200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>242900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1933,186 +1972,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E23" s="3">
         <v>699000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>750000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>793000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>743000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>661000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>567000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>490000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>468000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>634000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>375000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>358000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>181000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>372000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>439000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>427000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>421000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>391000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>440000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>412000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>385000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>411700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>364500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>350400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>267400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>312900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>151800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E24" s="3">
         <v>134000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>144000</v>
       </c>
       <c r="F24" s="3">
         <v>144000</v>
       </c>
       <c r="G24" s="3">
+        <v>144000</v>
+      </c>
+      <c r="H24" s="3">
         <v>146000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>120000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>105000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>88000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>90000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>102000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>63000</v>
       </c>
       <c r="U24" s="3">
         <v>63000</v>
       </c>
       <c r="V24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="W24" s="3">
         <v>60000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>62000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>59000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>103100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>89900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>78600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>59300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>74000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>24700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,186 +2248,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E26" s="3">
         <v>565000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>606000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>649000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>597000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>541000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>462000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>402000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>378000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>532000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>316000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>303000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>150000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>317000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>372000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>364000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>358000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>331000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>378000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>355000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>326000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>308600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>274600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>271700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>208100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>239000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>127000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E27" s="3">
         <v>519000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>573000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>617000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>565000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>511000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>432000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>377000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>333000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-58000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>501000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>281000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>275000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>131000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>298000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>354000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>346000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>339000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>312000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>360000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>334000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>314000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>289300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>255700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>252900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>189200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>220100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2467,8 +2524,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2568,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2526,24 +2586,24 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>3000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>123000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2556,8 +2616,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2645,8 +2708,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2734,186 +2800,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>581000</v>
+      </c>
+      <c r="E32" s="3">
         <v>555000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>574000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>578000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>555000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>533000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>554000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>706000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>754000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>628000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>398000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>371000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>377000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>552000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>665000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>329000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>278000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>326000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>334000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>382000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>309000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>316000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>319000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>292500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>350300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>369100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>395000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>347200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E33" s="3">
         <v>519000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>573000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>617000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>565000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>511000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>432000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>377000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>333000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-58000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>501000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>281000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>275000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>131000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>298000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>354000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>346000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>339000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>315000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>360000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>334000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>314000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>412300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>255700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>252900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>189200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>220100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3001,191 +3076,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E35" s="3">
         <v>519000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>573000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>617000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>565000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>511000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>432000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>377000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>333000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-58000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>501000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>281000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>275000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>131000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>298000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>354000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>346000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>339000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>315000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>360000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>334000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>314000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>412300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>255700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>252900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>189200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>220100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3217,8 +3301,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3250,186 +3335,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1636000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1568000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1796000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1685000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1793000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1708000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1811000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1611000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1479000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1096000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1319000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1029000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1285000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1431000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1045000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1018000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>870000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>804000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1108000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1299000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1382000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1069000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1520000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1193700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1515500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1308800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1384800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1661900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13234000</v>
+      </c>
+      <c r="E42" s="3">
         <v>12656000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11734000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7713000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5379000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4602000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5199000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6299000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10530000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14269000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8884000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6733000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6556000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6227000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3894000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2189000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2866000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2778000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2216000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3162000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1549000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1457000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1354000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>455000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>459400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>496000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>160800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>191600</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>87200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3517,8 +3609,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3606,8 +3701,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3695,8 +3793,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3784,8 +3885,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3873,186 +3977,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1128000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1136000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1156000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1171000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1175000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1173000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1164000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1126000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1128000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>747000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>757000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>752000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>751000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>743000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>973000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>975000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>976000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>987000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>790000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>827000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>840000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>847000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>864000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>853300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>855300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>852600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>815500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6279000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6251000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6246000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6283000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6286000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6274000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6014000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5960000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5930000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5935000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2470000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2418000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2409000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2401000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2407000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2465000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2445000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2471000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2503000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2524000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2550000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2560000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2572000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2577000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2582400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2591400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2608600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2620900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2614100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4140,8 +4253,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4229,8 +4345,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4318,8 +4437,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4407,97 +4529,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>186650000</v>
+      </c>
+      <c r="E54" s="3">
         <v>188505000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>189070000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182906000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>179402000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>178782000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>176856000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174064000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>173878000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>175172000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125768000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123038000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>120116000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118425000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113897000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>109002000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>108735000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>108247000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>108203000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>108781000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105652000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>105358000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>104246000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>104185000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>101988100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>101406800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>100045500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>99714100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>100765400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4529,8 +4657,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4562,8 +4691,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4651,8 +4781,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4740,8 +4873,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4781,56 +4917,59 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>1304000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1884000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1753000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2074000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1983000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1859000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1855000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1725000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1556000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1737000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1520300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1441600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1643300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1796400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1826900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4918,97 +5057,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10115000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9003000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9363000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9475000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7456000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7653000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6294000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6893000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7563000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7128000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7210000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8352000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9174000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9753000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9796000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9849000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9874000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8973000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9400000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8625000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9385000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9726000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8618000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9206000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9200700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8536500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9279100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>8309200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>8998600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5096,8 +5241,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5185,8 +5333,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5274,8 +5425,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5363,97 +5517,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168167000</v>
+      </c>
+      <c r="E66" s="3">
         <v>169717000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170312000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>165175000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>162266000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>160832000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158404000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154767000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154399000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154661000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112168000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110045000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>107199000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>106111000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102128000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>97207000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>96826000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>96579000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>96771000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>97679000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>94718000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>93886000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>92938000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>93371000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>91289300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>90752600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>89608400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>89406000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>90378600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5485,8 +5645,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5574,8 +5735,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5663,8 +5827,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5675,7 +5842,7 @@
         <v>2484000</v>
       </c>
       <c r="F70" s="3">
-        <v>2167000</v>
+        <v>2484000</v>
       </c>
       <c r="G70" s="3">
         <v>2167000</v>
@@ -5690,25 +5857,25 @@
         <v>2167000</v>
       </c>
       <c r="K70" s="3">
+        <v>2167000</v>
+      </c>
+      <c r="L70" s="3">
         <v>2267000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2851000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2676000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>2191000</v>
       </c>
       <c r="O70" s="3">
         <v>2191000</v>
       </c>
       <c r="P70" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1697000</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1203000</v>
       </c>
       <c r="R70" s="3">
         <v>1203000</v>
@@ -5735,16 +5902,16 @@
         <v>1203000</v>
       </c>
       <c r="Z70" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="AA70" s="3">
         <v>1071000</v>
-      </c>
-      <c r="AA70" s="3">
-        <v>1071300</v>
       </c>
       <c r="AB70" s="3">
         <v>1071300</v>
       </c>
       <c r="AC70" s="3">
-        <v>1071200</v>
+        <v>1071300</v>
       </c>
       <c r="AD70" s="3">
         <v>1071200</v>
@@ -5752,8 +5919,11 @@
       <c r="AE70" s="3">
         <v>1071200</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>1071200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5841,97 +6011,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4334000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4052000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3764000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3419000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3029000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2691000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2408000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2202000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2051000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1939000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2223000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1878000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1752000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1633000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1657000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2088000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1946000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1750000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1551000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1361000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1196000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>990000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>780000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>588000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>201200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>33600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-126200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-226800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-359400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6019,8 +6195,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6108,8 +6287,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6197,97 +6379,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15999000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16304000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16274000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15564000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14969000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15783000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16285000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17130000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17212000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17660000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10924000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10802000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10726000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10617000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10566000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10592000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10706000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10465000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10229000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9899000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9731000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10269000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10105000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9743000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9627600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9582900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9365900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>9236900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>9315500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6375,191 +6563,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E81" s="3">
         <v>519000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>573000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>617000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>565000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>511000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>432000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>377000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>333000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-58000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>501000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>281000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>275000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>131000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>298000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>354000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>346000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>339000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>315000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>360000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>334000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>314000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>412300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>255700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>252900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>189200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>220100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>108500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6591,97 +6788,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E83" s="3">
         <v>202000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>142000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>129000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>112000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>92000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>203000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>109000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>59000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>119000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>131000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>143000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>122000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>123000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>105000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>105900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>96200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>-400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>211200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>80300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6769,8 +6970,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6858,8 +7062,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6947,8 +7154,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7036,8 +7246,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7125,97 +7338,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E89" s="3">
         <v>630000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>130000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1357000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>846000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>975000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>849000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>497000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>577000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1099000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-111000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>549000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>212000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>498000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>676000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>46000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>355000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>497000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>582000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>542000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>308000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>294000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>847700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>547600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>163000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>395800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>529500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7247,97 +7466,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-90000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-49400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-57100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-55500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-56800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7425,8 +7648,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7514,97 +7740,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1167000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2299000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1263000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1141000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3850000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5355000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4751000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3197000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4362000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-376000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2487000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1783000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4322000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1114000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-184000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-515000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1686000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-519000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-682000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-776000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2164000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1121800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-843100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-737100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-585400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-264000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7636,19 +7868,20 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-224000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-225000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-224000</v>
       </c>
       <c r="G96" s="3">
         <v>-224000</v>
@@ -7657,76 +7890,79 @@
         <v>-224000</v>
       </c>
       <c r="I96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-225000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-219000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-223000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-155000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-153000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-154000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-153000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-155000</v>
       </c>
       <c r="R96" s="3">
         <v>-155000</v>
       </c>
       <c r="S96" s="3">
-        <v>-147000</v>
+        <v>-155000</v>
       </c>
       <c r="T96" s="3">
         <v>-147000</v>
       </c>
       <c r="U96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-148000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-152000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-122000</v>
       </c>
       <c r="X96" s="3">
         <v>-122000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-118000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-87400</v>
       </c>
       <c r="AA96" s="3">
         <v>-87400</v>
       </c>
       <c r="AB96" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-87200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-87000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-56600</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7814,8 +8050,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7903,8 +8142,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7992,97 +8234,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2087000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1087000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5834000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2234000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>763000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2259000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3508000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-890000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-795000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2481000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2743000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1216000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4361000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4421000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>176000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-29000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1318000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2477000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-106000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>687000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>31000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1642400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>252500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>886700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>265400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-221300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>659600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8170,93 +8418,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E102" s="3">
         <v>710000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3665000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2328000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>468000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-616000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-998000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4223000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3510000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4666000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1994000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>320000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4526000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>597000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-466000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>38000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>262000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1336000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1373000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-83000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>313000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-451000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>326000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-321700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>206700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-76000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-277200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>794800</v>
       </c>
     </row>
